--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyriloe/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362FA5AC-C9D6-3A4E-B355-08D3CB401F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020FF31B-4ED3-4AB6-9A28-356FBB3E0455}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1740" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1812,6 +1812,26 @@
   </si>
   <si>
     <t>Prototyping을 위한 안드로이드 SharedPreference 기능 스터디</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>usecase diagram 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>usecase 및 prototype 작성 관련 조모임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spec 작성 관련 조모임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 시스템 탐색 및 스터디</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>usecase outline 수정 및 specification 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2421,17 +2441,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.75" customHeight="1">
@@ -2462,7 +2482,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="28">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2763,7 +2783,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2780,7 +2800,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2797,7 +2817,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2814,7 +2834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2831,7 +2851,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2848,7 +2868,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2865,7 +2885,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2881,17 +2901,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="49.5" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2908,7 +2928,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -2926,7 +2946,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2946,45 +2966,105 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
-      <c r="A6" s="13"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="3"/>
+    <row r="6" spans="1:6" ht="13">
+      <c r="A6" s="13">
+        <v>43733</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>60</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13">
+      <c r="A7" s="13">
+        <v>43735</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>110</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13">
+      <c r="A8" s="13">
+        <v>43742</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>60</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13">
+      <c r="A9" s="13">
+        <v>43743</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>60</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13">
+      <c r="A10" s="13">
+        <v>43744</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>240</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="14"/>
@@ -3042,7 +3122,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3066,7 +3146,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3229,13 +3309,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="42.5" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3252,7 +3332,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3270,7 +3350,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3290,7 +3370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -3308,7 +3388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -3326,7 +3406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
@@ -3344,7 +3424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
@@ -3380,7 +3460,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
@@ -3446,7 +3526,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3470,7 +3550,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3630,16 +3710,16 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="41.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3656,7 +3736,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3674,7 +3754,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3694,7 +3774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3714,7 +3794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -3734,7 +3814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
@@ -3754,7 +3834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
@@ -3774,7 +3854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3850,7 +3930,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3874,7 +3954,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4038,13 +4118,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="52.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4061,7 +4141,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="16">
+    <row r="3" spans="1:7" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4079,7 +4159,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="28">
+    <row r="5" spans="1:7" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4099,7 +4179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4219,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="16">
-        <f t="shared" ref="E11:E16" si="1">HOUR(C11)*60+MINUTE(C11)-(HOUR(B11)*60+MINUTE(B11)+D11)</f>
+        <f t="shared" ref="E11:E15" si="1">HOUR(C11)*60+MINUTE(C11)-(HOUR(B11)*60+MINUTE(B11)+D11)</f>
         <v>90</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -4247,7 +4327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -4326,7 +4406,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4350,7 +4430,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4513,13 +4593,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4536,7 +4616,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4554,7 +4634,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4574,7 +4654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4670,7 +4750,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4694,7 +4774,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4855,7 +4935,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4872,7 +4952,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4889,7 +4969,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020FF31B-4ED3-4AB6-9A28-356FBB3E0455}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCB9022-6008-4A26-B893-673F4249C713}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2604" yWindow="2556" windowWidth="17208" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1696,14 +1696,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>19.09.27</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.10.04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>19.10.05</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1832,6 +1824,83 @@
   </si>
   <si>
     <t>usecase outline 수정 및 specification 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.09.09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.09.10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 공부(Codecademy)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android Studio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Udemy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영상 시청</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 이용법 유튜브 및 Udemy 영상 시청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 이용법 Udemy 영상 시청</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2445,16 +2514,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.75" customHeight="1">
+    <row r="1" spans="1:6" ht="11.7" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2466,7 +2535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.75" customHeight="1">
+    <row r="2" spans="1:6" ht="11.7" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -2481,8 +2550,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
+    <row r="4" spans="1:6" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2783,7 +2852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2800,7 +2869,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2817,7 +2886,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2834,7 +2903,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2851,7 +2920,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2868,7 +2937,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2885,7 +2954,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2901,17 +2970,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2928,7 +2997,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -2946,7 +3015,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2966,7 +3035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -2983,10 +3052,10 @@
         <v>60</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3003,10 +3072,10 @@
         <v>110</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3023,10 +3092,10 @@
         <v>60</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3043,10 +3112,10 @@
         <v>60</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3063,7 +3132,7 @@
         <v>240</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3122,7 +3191,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3146,7 +3215,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3305,17 +3374,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3332,7 +3401,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3419,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3370,163 +3439,247 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>120</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6">
+      <c r="A7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>60</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="2">
         <v>0.125</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
         <v>60</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F8" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
-      <c r="A7" s="13" t="s">
+    <row r="9" spans="1:6" ht="15.6">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16">
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
         <v>110</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
-      <c r="A8" s="13" t="s">
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>60</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>90</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>60</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15">
+      <c r="B14" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <v>60</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
-      <c r="A9" s="13" t="s">
+    <row r="15" spans="1:6" ht="15.6">
+      <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
+      <c r="B15" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F15" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16">
-        <v>170</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17">
-        <v>130</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>60</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>60</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3550,7 +3703,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3697,11 +3850,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3713,13 +3867,13 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3736,7 +3890,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3754,7 +3908,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3774,7 +3928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3794,7 +3948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -3814,7 +3968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
@@ -3834,7 +3988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
@@ -3854,7 +4008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3930,7 +4084,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3954,7 +4108,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4115,16 +4269,16 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="52.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4141,7 +4295,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4159,7 +4313,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4179,7 +4333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4218,7 +4372,7 @@
         <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="26"/>
     </row>
@@ -4240,7 +4394,7 @@
         <v>120</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4261,7 +4415,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4282,7 +4436,7 @@
         <v>180</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4303,7 +4457,7 @@
         <v>90</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4324,10 +4478,10 @@
         <v>120</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -4345,7 +4499,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4366,7 +4520,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4387,7 +4541,7 @@
         <v>180</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4406,7 +4560,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4430,7 +4584,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4593,13 +4747,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4616,7 +4770,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4634,7 +4788,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4654,7 +4808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4750,7 +4904,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4774,7 +4928,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4935,7 +5089,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4952,7 +5106,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4969,7 +5123,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020FF31B-4ED3-4AB6-9A28-356FBB3E0455}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD13F9C3-6A2E-4A93-936D-CE5E22476277}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="1635" windowWidth="21150" windowHeight="16530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1832,6 +1832,25 @@
   </si>
   <si>
     <t>usecase outline 수정 및 specification 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UseCase Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종 수정, 취합</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2445,16 +2464,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.75" customHeight="1">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2466,7 +2485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.75" customHeight="1">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -2481,8 +2500,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2783,7 +2802,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2800,7 +2819,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2817,7 +2836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2834,7 +2853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2851,7 +2870,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2868,7 +2887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2885,7 +2904,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2901,17 +2920,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2928,7 +2947,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -2946,7 +2965,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2966,7 +2985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -2986,7 +3005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3006,7 +3025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3026,7 +3045,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3046,7 +3065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3122,7 +3141,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3146,7 +3165,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3309,13 +3328,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3332,7 +3351,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3369,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3370,7 +3389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -3388,7 +3407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -3406,7 +3425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
@@ -3424,7 +3443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
@@ -3460,7 +3479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
@@ -3526,7 +3545,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3550,7 +3569,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3709,17 +3728,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3736,7 +3755,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3754,7 +3773,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3774,7 +3793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3794,7 +3813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -3814,7 +3833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
@@ -3834,7 +3853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
@@ -3854,7 +3873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3874,13 +3893,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="4"/>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13"/>
@@ -3930,7 +3961,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3954,7 +3985,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4118,13 +4149,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="52.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4141,7 +4172,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4159,7 +4190,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4179,7 +4210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4327,7 +4358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -4406,7 +4437,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4430,7 +4461,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4593,13 +4624,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4616,7 +4647,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4634,7 +4665,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4654,7 +4685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4750,7 +4781,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4774,7 +4805,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4935,7 +4966,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4952,7 +4983,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4969,7 +5000,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD13F9C3-6A2E-4A93-936D-CE5E22476277}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4EB8D7-1E7F-4101-AC6E-98372BF98074}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1635" windowWidth="21150" windowHeight="16530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3264" yWindow="1632" windowWidth="17208" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1550,10 +1550,6 @@
   </si>
   <si>
     <t>19.09.25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use Case 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1850,6 +1846,81 @@
         <charset val="129"/>
       </rPr>
       <t>최종 수정, 취합</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Diagram 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 전반적 사용법 Udemy 강의 시청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 사용법 Udemy 및 Youtube 강의 시청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 사용법 Udemy 강의 시청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개인일정 등록 및 수정 파트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Use Case Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2021,7 +2092,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2074,6 +2145,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -2464,13 +2537,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -2493,7 +2566,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -2501,7 +2574,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2802,7 +2875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2819,7 +2892,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2836,7 +2909,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2853,7 +2926,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2870,7 +2943,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2887,7 +2960,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2904,7 +2977,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2924,10 +2997,10 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2947,12 +3020,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -2965,7 +3038,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2985,7 +3058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3002,10 +3075,10 @@
         <v>60</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3022,10 +3095,10 @@
         <v>110</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3042,10 +3115,10 @@
         <v>60</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3062,10 +3135,10 @@
         <v>60</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3082,7 +3155,7 @@
         <v>240</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3141,7 +3214,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3165,7 +3238,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3322,16 +3395,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3351,12 +3425,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -3369,7 +3443,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3389,7 +3463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -3399,15 +3473,17 @@
       <c r="C6" s="2">
         <v>0.125</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
       <c r="E6" s="16">
         <v>60</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -3417,17 +3493,19 @@
       <c r="C7" s="2">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
       <c r="E7" s="16">
         <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="13" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.5">
-      <c r="A8" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="B8" s="2">
         <v>0.8125</v>
@@ -3435,107 +3513,176 @@
       <c r="C8" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
       <c r="E8" s="15">
         <v>60</v>
       </c>
       <c r="F8" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6">
+      <c r="A9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>60</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" ref="E10" si="0">HOUR(C10)*60+MINUTE(C10)-(HOUR(B10)*60+MINUTE(B10)+D10)</f>
+        <v>30</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>60</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
-      <c r="A9" s="13" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
+      <c r="B12" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>170</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>130</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16">
-        <v>170</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.5">
-      <c r="A11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17">
-        <v>130</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
+      <c r="F14" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6">
+      <c r="A15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>90</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>60</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="13"/>
@@ -3551,7 +3698,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="8"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="13"/>
@@ -3561,13 +3708,13 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="8"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="13"/>
@@ -3575,7 +3722,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="13"/>
@@ -3585,13 +3732,13 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="13"/>
@@ -3694,24 +3841,40 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3728,14 +3891,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3755,12 +3918,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -3773,7 +3936,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3793,9 +3956,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>0.8125</v>
@@ -3810,12 +3973,12 @@
         <v>40</v>
       </c>
       <c r="F6" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8">
+      <c r="A7" s="13" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>0.64583333333333337</v>
@@ -3830,12 +3993,12 @@
         <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>0.65972222222222221</v>
@@ -3850,12 +4013,12 @@
         <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8">
+      <c r="A9" s="13" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>0.69097222222222221</v>
@@ -3870,12 +4033,12 @@
         <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.5">
-      <c r="A10" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>0.94444444444444453</v>
@@ -3890,12 +4053,12 @@
         <v>130</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5">
         <v>0.66666666666666663</v>
@@ -3910,7 +4073,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3961,7 +4124,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3985,7 +4148,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4146,13 +4309,13 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4172,12 +4335,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -4190,7 +4353,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4210,7 +4373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4228,7 +4391,7 @@
         <v>60</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4249,7 +4412,7 @@
         <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="26"/>
     </row>
@@ -4271,7 +4434,7 @@
         <v>120</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4292,7 +4455,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4313,7 +4476,7 @@
         <v>180</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4334,7 +4497,7 @@
         <v>90</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4355,10 +4518,10 @@
         <v>120</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -4376,7 +4539,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4397,7 +4560,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4418,7 +4581,7 @@
         <v>180</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4437,7 +4600,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4461,7 +4624,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4624,10 +4787,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4647,12 +4810,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -4665,7 +4828,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4685,7 +4848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4781,7 +4944,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4805,7 +4968,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4966,7 +5129,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4983,7 +5146,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5000,7 +5163,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD13F9C3-6A2E-4A93-936D-CE5E22476277}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D9D8DA-4F56-4620-9F2E-59F3720C88C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1635" windowWidth="21150" windowHeight="16530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1850,6 +1850,42 @@
         <charset val="129"/>
       </rPr>
       <t>최종 수정, 취합</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SRS 1.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3729,7 +3765,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -3913,13 +3949,26 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="3"/>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D12" s="8">
+        <v>60</v>
+      </c>
+      <c r="E12" s="16">
+        <f>HOUR(C12)*60+MINUTE(C12)-(HOUR(B12)*60+MINUTE(B12)+D12)</f>
+        <v>160</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="13"/>
@@ -4146,7 +4195,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -4224,8 +4273,8 @@
         <v>0</v>
       </c>
       <c r="E6" s="16">
-        <f t="shared" ref="E6:E7" si="0">HOUR(C6)*60+MINUTE(C6)-(HOUR(B6)*60+MINUTE(B6)+D6)</f>
-        <v>60</v>
+        <f>김지환!E12</f>
+        <v>160</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>20</v>
@@ -4245,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E6:E7" si="0">HOUR(C7)*60+MINUTE(C7)-(HOUR(B7)*60+MINUTE(B7)+D7)</f>
         <v>110</v>
       </c>
       <c r="F7" s="3" t="s">

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D9D8DA-4F56-4620-9F2E-59F3720C88C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A53C4E-0330-4F88-B424-C1AF1E74CC63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1887,6 +1887,10 @@
       </rPr>
       <t>작성</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Dataset 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2500,16 +2504,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2521,7 +2525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -2536,8 +2540,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2838,7 +2842,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2855,7 +2859,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2872,7 +2876,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2889,7 +2893,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2906,7 +2910,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2923,7 +2927,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2940,7 +2944,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2956,17 +2960,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2983,7 +2988,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3001,7 +3006,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3021,7 +3026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3041,7 +3046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3061,7 +3066,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3081,7 +3086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3101,7 +3106,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3122,12 +3127,24 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="14">
+        <v>43765</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13"/>
@@ -3177,7 +3194,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3201,7 +3218,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3364,13 +3381,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3387,7 +3404,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3405,7 +3422,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3425,7 +3442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -3443,7 +3460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -3461,7 +3478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
@@ -3479,7 +3496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
@@ -3515,7 +3532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
@@ -3581,7 +3598,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3605,7 +3622,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3764,17 +3781,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3791,7 +3808,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3809,7 +3826,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3829,7 +3846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3849,7 +3866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -3869,7 +3886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
@@ -3889,7 +3906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
@@ -3909,7 +3926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3929,7 +3946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" ht="13">
       <c r="A11" s="14" t="s">
         <v>51</v>
       </c>
@@ -3949,7 +3966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="13">
       <c r="A12" s="13" t="s">
         <v>53</v>
       </c>
@@ -4010,7 +4027,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4034,7 +4051,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4198,13 +4215,13 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4221,7 +4238,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4239,7 +4256,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4259,7 +4276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4294,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="16">
-        <f t="shared" ref="E6:E7" si="0">HOUR(C7)*60+MINUTE(C7)-(HOUR(B7)*60+MINUTE(B7)+D7)</f>
+        <f t="shared" ref="E7" si="0">HOUR(C7)*60+MINUTE(C7)-(HOUR(B7)*60+MINUTE(B7)+D7)</f>
         <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -4407,7 +4424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -4486,7 +4503,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4510,7 +4527,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4673,13 +4690,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="50.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +4713,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4714,7 +4731,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4734,7 +4751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4830,7 +4847,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4854,7 +4871,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5015,7 +5032,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5032,7 +5049,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5049,7 +5066,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A53C4E-0330-4F88-B424-C1AF1E74CC63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C38FD82-B573-4314-8B55-2F0FF44D3736}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11070" yWindow="2985" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1891,6 +1891,65 @@
   </si>
   <si>
     <t>Initial Dataset 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 사용법 Udemy 및 Youtube 강의 시청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 사용법 Udemy 강의 시청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개인일정 등록 및 수정 파트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Use Case Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial data 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2061,7 +2120,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2114,6 +2173,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -2504,16 +2565,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.9" customHeight="1">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2525,7 +2586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.9" customHeight="1">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -2540,8 +2601,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2842,7 +2903,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2859,7 +2920,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2876,7 +2937,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2893,7 +2954,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2910,7 +2971,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2927,7 +2988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2944,7 +3005,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2960,18 +3021,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2988,7 +3049,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3006,7 +3067,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3026,7 +3087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3046,7 +3107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3066,7 +3127,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3086,7 +3147,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3106,7 +3167,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3194,7 +3255,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3218,7 +3279,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3377,17 +3438,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3404,7 +3465,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3422,7 +3483,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3442,7 +3503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -3460,7 +3521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -3478,7 +3539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
@@ -3496,7 +3557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
@@ -3532,7 +3593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
@@ -3550,37 +3611,85 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
+    <row r="12" spans="1:6" ht="13.5">
+      <c r="A12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>60</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.5">
+      <c r="A13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>90</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.5">
+      <c r="A14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>60</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="13"/>
@@ -3598,7 +3707,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3622,7 +3731,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3785,13 +3894,13 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3808,7 +3917,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3826,7 +3935,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3846,7 +3955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3866,7 +3975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -3886,7 +3995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
@@ -3906,7 +4015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
@@ -3926,7 +4035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3946,7 +4055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="14" t="s">
         <v>51</v>
       </c>
@@ -3966,7 +4075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="13" t="s">
         <v>53</v>
       </c>
@@ -4027,7 +4136,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4051,7 +4160,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4215,13 +4324,13 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4238,7 +4347,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4256,7 +4365,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4276,7 +4385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4424,7 +4533,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -4503,7 +4612,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4527,7 +4636,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4690,13 +4799,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4713,7 +4822,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4731,7 +4840,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4751,7 +4860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4847,7 +4956,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4871,7 +4980,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5032,7 +5141,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5049,7 +5158,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5066,7 +5175,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C38FD82-B573-4314-8B55-2F0FF44D3736}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576236AA-1A93-4416-9CDF-85F8D7E4D9C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11070" yWindow="2985" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1550,10 +1550,6 @@
   </si>
   <si>
     <t>19.09.25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use Case 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1693,14 +1689,6 @@
       </rPr>
       <t>Use Case Outline 작성 관련 조모임</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.09.27</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.10.04</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1950,6 +1938,22 @@
   </si>
   <si>
     <t>Initial data 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Diagram 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 전반적 사용법 Udemy 강의 시청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.03</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2565,13 +2569,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -2594,7 +2598,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -2602,7 +2606,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2903,7 +2907,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2920,7 +2924,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2937,7 +2941,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2954,7 +2958,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2971,7 +2975,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2988,7 +2992,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3005,7 +3009,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3025,11 +3029,11 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3049,12 +3053,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -3067,7 +3071,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3087,7 +3091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3104,10 +3108,10 @@
         <v>60</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3124,10 +3128,10 @@
         <v>110</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3144,10 +3148,10 @@
         <v>60</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3164,10 +3168,10 @@
         <v>60</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>240</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3204,7 +3208,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3255,7 +3259,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3279,7 +3283,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3439,13 +3443,13 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3465,12 +3469,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -3483,7 +3487,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3503,7 +3507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -3513,15 +3517,17 @@
       <c r="C6" s="2">
         <v>0.125</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
       <c r="E6" s="16">
         <v>60</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -3531,17 +3537,19 @@
       <c r="C7" s="2">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
       <c r="E7" s="16">
         <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>0.8125</v>
@@ -3549,117 +3557,126 @@
       <c r="C8" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
       <c r="E8" s="15">
         <v>60</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>60</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" ref="E10" si="0">HOUR(C10)*60+MINUTE(C10)-(HOUR(B10)*60+MINUTE(B10)+D10)</f>
+        <v>30</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13" t="s">
+      <c r="F11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2">
         <v>0.75</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C12" s="2">
         <v>0.86805555555555547</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16">
-        <v>170</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.5">
-      <c r="A11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17">
-        <v>130</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.5">
-      <c r="A12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.95833333333333337</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16">
-        <v>60</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.5">
-      <c r="A13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2">
+        <v>170</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>130</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C13" s="2">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>90</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.5">
-      <c r="A14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
       <c r="C14" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -3667,47 +3684,71 @@
       <c r="E14" s="16">
         <v>60</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2">
-        <v>0.52777777777777779</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C15" s="2">
-        <v>0.5625</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
       </c>
       <c r="E15" s="16">
+        <v>90</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>60</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="B17" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3731,7 +3772,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3894,10 +3935,10 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3917,12 +3958,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -3935,7 +3976,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3955,9 +3996,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>0.8125</v>
@@ -3972,12 +4013,12 @@
         <v>40</v>
       </c>
       <c r="F6" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8">
+      <c r="A7" s="13" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>0.64583333333333337</v>
@@ -3992,12 +4033,12 @@
         <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>0.65972222222222221</v>
@@ -4012,12 +4053,12 @@
         <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8">
+      <c r="A9" s="13" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>0.69097222222222221</v>
@@ -4032,12 +4073,12 @@
         <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.5">
-      <c r="A10" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>0.94444444444444453</v>
@@ -4052,12 +4093,12 @@
         <v>130</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="5">
         <v>0.66666666666666663</v>
@@ -4072,12 +4113,12 @@
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
         <v>0.68055555555555547</v>
@@ -4093,7 +4134,7 @@
         <v>160</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4136,7 +4177,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4160,7 +4201,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4324,10 +4365,10 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4347,12 +4388,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -4365,7 +4406,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4385,7 +4426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4403,7 +4444,7 @@
         <v>160</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4424,7 +4465,7 @@
         <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" s="26"/>
     </row>
@@ -4446,7 +4487,7 @@
         <v>120</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4467,7 +4508,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4488,7 +4529,7 @@
         <v>180</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4509,7 +4550,7 @@
         <v>90</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4530,10 +4571,10 @@
         <v>120</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -4551,7 +4592,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4572,7 +4613,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4593,7 +4634,7 @@
         <v>180</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4612,7 +4653,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4636,7 +4677,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4799,10 +4840,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4822,12 +4863,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -4840,7 +4881,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4860,7 +4901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4956,7 +4997,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4980,7 +5021,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5141,7 +5182,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5158,7 +5199,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5175,7 +5216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576236AA-1A93-4416-9CDF-85F8D7E4D9C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306A1BFD-85D7-4EEA-9820-44AD68FC8D6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="3210" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1954,6 +1954,294 @@
   </si>
   <si>
     <t>19.10.03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.09.25</t>
+  </si>
+  <si>
+    <t>UseCase Diagram 작성</t>
+  </si>
+  <si>
+    <t>19.09.27</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UseCase Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분담</t>
+    </r>
+  </si>
+  <si>
+    <t>19.09.29</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UseCase Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+  </si>
+  <si>
+    <t>19.10.04</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UseCase Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+  </si>
+  <si>
+    <t>19.10.06</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UseCase Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담당부분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>19.11.06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2569,13 +2857,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -2606,7 +2894,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2907,7 +3195,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2924,7 +3212,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2941,7 +3229,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2958,7 +3246,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2975,7 +3263,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2992,7 +3280,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3009,7 +3297,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3029,11 +3317,11 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3053,7 +3341,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3071,7 +3359,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3091,7 +3379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3111,7 +3399,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3131,7 +3419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3151,7 +3439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3171,7 +3459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3259,7 +3547,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3283,7 +3571,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3442,14 +3730,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3469,7 +3757,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3487,7 +3775,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3507,7 +3795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -3527,7 +3815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -3547,7 +3835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -3567,7 +3855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -3587,7 +3875,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -3608,7 +3896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -3648,7 +3936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -3668,7 +3956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -3688,7 +3976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -3708,7 +3996,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -3748,7 +4036,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3772,7 +4060,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3931,14 +4219,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3958,7 +4247,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3976,7 +4265,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3996,7 +4285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -4016,7 +4305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4036,7 +4325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4056,7 +4345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -4076,7 +4365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -4096,7 +4385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -4116,7 +4405,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -4137,13 +4426,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="13"/>
@@ -4177,7 +4478,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4201,7 +4502,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4365,10 +4666,10 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4388,7 +4689,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4406,7 +4707,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4426,7 +4727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4574,7 +4875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -4653,7 +4954,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4677,7 +4978,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4837,13 +5138,13 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4863,7 +5164,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +5182,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4901,61 +5202,145 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>40</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>110</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="4"/>
+      <c r="A10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>120</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5">
+      <c r="A11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>130</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="13"/>
@@ -4997,7 +5382,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5021,7 +5406,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5182,7 +5567,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5199,7 +5584,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5216,7 +5601,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306A1BFD-85D7-4EEA-9820-44AD68FC8D6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0695D85D-C896-422C-B25E-A42E0DF9D62E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="3210" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="2685" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2232,6 +2232,25 @@
   <si>
     <r>
       <t xml:space="preserve">Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ER Diagram </t>
     </r>
     <r>
       <rPr>
@@ -4220,7 +4239,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -4446,13 +4465,25 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="13"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0695D85D-C896-422C-B25E-A42E0DF9D62E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32907871-B122-4ECF-9FD5-137143E7F3F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="2685" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2260,6 +2260,25 @@
         <charset val="129"/>
       </rPr>
       <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Project Evaluation 검토</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> mechanism 조사</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2876,16 +2895,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2897,7 +2916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -2912,8 +2931,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3214,7 +3233,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3231,7 +3250,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3248,7 +3267,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3265,7 +3284,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3282,7 +3301,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3299,7 +3318,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3316,7 +3335,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3332,18 +3351,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3360,7 +3379,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3378,7 +3397,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3398,7 +3417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3418,7 +3437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3438,7 +3457,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3458,7 +3477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3478,7 +3497,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3519,20 +3538,44 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
+      <c r="A12" s="13">
+        <v>43769</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13">
+      <c r="A13" s="13">
+        <v>43776</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>120</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="13"/>
@@ -3566,7 +3609,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3590,7 +3633,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3753,13 +3796,13 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3776,7 +3819,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3794,7 +3837,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3814,7 +3857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -3834,7 +3877,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -3854,7 +3897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -3874,7 +3917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -3894,7 +3937,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -3915,7 +3958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -3955,7 +3998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -3975,7 +4018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -3995,7 +4038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4015,7 +4058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4055,7 +4098,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4079,7 +4122,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4238,18 +4281,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4266,7 +4309,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4284,7 +4327,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4304,7 +4347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -4324,7 +4367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4344,7 +4387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4364,7 +4407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -4384,7 +4427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -4404,7 +4447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" ht="13">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -4424,7 +4467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="13">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -4445,7 +4488,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4465,7 +4508,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="13">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4509,7 +4552,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4533,7 +4576,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4697,13 +4740,13 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4720,7 +4763,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4738,7 +4781,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4758,7 +4801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4906,7 +4949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -4985,7 +5028,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5009,7 +5052,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5172,13 +5215,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="50.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5195,7 +5238,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5213,7 +5256,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5233,7 +5276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -5253,7 +5296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -5273,7 +5316,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -5293,7 +5336,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -5313,7 +5356,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -5333,7 +5376,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -5413,7 +5456,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5437,7 +5480,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5598,7 +5641,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5615,7 +5658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5632,7 +5675,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32907871-B122-4ECF-9FD5-137143E7F3F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E1D7FC-1FEC-46D0-A808-58257BE3229B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2279,6 +2279,39 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> mechanism 조사</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer review</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anroid Studio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용법 공부</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2291,7 +2324,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2409,6 +2442,17 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋음"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2450,7 +2494,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2505,6 +2549,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -2895,16 +2941,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.9" customHeight="1">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2916,7 +2962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.9" customHeight="1">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -2931,8 +2977,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3233,7 +3279,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3250,7 +3296,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3267,7 +3313,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3284,7 +3330,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3301,7 +3347,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3318,7 +3364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3335,7 +3381,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3351,18 +3397,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3425,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3397,7 +3443,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3417,7 +3463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3437,7 +3483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3457,7 +3503,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3477,7 +3523,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3497,7 +3543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3557,7 +3603,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -3609,7 +3655,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3633,7 +3679,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3792,17 +3838,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3819,7 +3865,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3837,7 +3883,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3857,7 +3903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -3877,7 +3923,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -3897,7 +3943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -3917,7 +3963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -3937,7 +3983,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -3958,7 +4004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -3998,7 +4044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4018,7 +4064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4038,7 +4084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4058,7 +4104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4098,21 +4144,45 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
-      <c r="A18" s="13"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="3"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>180</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6">
+      <c r="A19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>60</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="13"/>
@@ -4122,7 +4192,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4285,14 +4355,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4309,7 +4379,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4327,7 +4397,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4347,7 +4417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -4367,7 +4437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4387,7 +4457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4407,7 +4477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -4427,7 +4497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -4447,7 +4517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -4467,7 +4537,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -4488,7 +4558,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4508,7 +4578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4552,7 +4622,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4576,7 +4646,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4740,13 +4810,13 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4763,7 +4833,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4781,7 +4851,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4801,7 +4871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4949,7 +5019,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -5028,7 +5098,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5052,7 +5122,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5215,13 +5285,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5238,7 +5308,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5256,7 +5326,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5276,7 +5346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -5296,7 +5366,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -5316,7 +5386,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -5336,7 +5406,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -5356,7 +5426,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -5376,7 +5446,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -5456,7 +5526,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5480,7 +5550,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5641,7 +5711,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5658,7 +5728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5675,7 +5745,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E1D7FC-1FEC-46D0-A808-58257BE3229B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F087C4F-A9BA-455C-B7F7-AA283F37EC1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2312,6 +2312,25 @@
         <scheme val="minor"/>
       </rPr>
       <t>사용법 공부</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3839,7 +3858,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
@@ -4184,13 +4203,25 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="3"/>
+    <row r="20" spans="1:6" ht="15.6">
+      <c r="A20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>70</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F087C4F-A9BA-455C-B7F7-AA283F37EC1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E517474-92A4-459C-A705-823F0108ED46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2331,6 +2331,31 @@
         <charset val="129"/>
       </rPr>
       <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Initial data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 작성에 대한 온라인 조모임</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2343,7 +2368,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2472,6 +2497,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2513,7 +2545,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2570,6 +2602,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3858,7 +3891,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
@@ -4223,13 +4256,25 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
+    <row r="21" spans="1:6" ht="15.6">
+      <c r="A21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>60</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="13"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E517474-92A4-459C-A705-823F0108ED46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC4C2CA-D555-48CC-8D8B-2A8ADC30A608}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15105" yWindow="3675" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2356,6 +2356,87 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 작성에 대한 온라인 조모임</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맡은 부분 작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련 조모임</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수집 관련 설문조사 작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값 계산 취합</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2993,13 +3074,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -3030,7 +3111,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3331,7 +3412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3348,7 +3429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3365,7 +3446,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3382,7 +3463,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3399,7 +3480,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3416,7 +3497,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3433,7 +3514,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3453,11 +3534,11 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3477,7 +3558,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3495,7 +3576,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3515,7 +3596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3535,7 +3616,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3555,7 +3636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3575,7 +3656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3595,7 +3676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3655,7 +3736,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -3707,7 +3788,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3731,7 +3812,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3890,14 +3971,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3917,7 +3998,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3935,7 +4016,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3955,7 +4036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -3975,7 +4056,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -3995,7 +4076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4015,7 +4096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4035,7 +4116,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4056,7 +4137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4096,7 +4177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4116,7 +4197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4136,7 +4217,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4156,7 +4237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4216,7 +4297,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4236,7 +4317,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4256,7 +4337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -4427,15 +4508,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4455,7 +4536,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4473,7 +4554,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4493,7 +4574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -4513,7 +4594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4533,7 +4614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4553,7 +4634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -4573,7 +4654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -4593,7 +4674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -4613,7 +4694,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -4634,7 +4715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4654,7 +4735,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4675,36 +4756,84 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.8">
-      <c r="A18" s="13"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
+      <c r="A15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>60</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>60</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.0069444444444444</v>
+      </c>
+      <c r="D18" s="8">
+        <v>30</v>
+      </c>
+      <c r="E18" s="16">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="13"/>
@@ -4722,7 +4851,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4886,10 +5015,10 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4909,7 +5038,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4927,7 +5056,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4947,7 +5076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5095,7 +5224,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -5174,7 +5303,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5198,7 +5327,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5361,10 +5490,10 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5384,7 +5513,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5402,7 +5531,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5422,7 +5551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -5442,7 +5571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -5462,7 +5591,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -5482,7 +5611,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -5502,7 +5631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -5522,7 +5651,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -5602,7 +5731,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5626,7 +5755,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5787,7 +5916,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5804,7 +5933,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5821,7 +5950,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC4C2CA-D555-48CC-8D8B-2A8ADC30A608}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182CA7FA-E8AF-4E7C-8A61-EA18B47DDF03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15105" yWindow="3675" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2437,6 +2437,26 @@
         <charset val="129"/>
       </rPr>
       <t>값 계산 취합</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android Studio calendarview, toolbar, navigation drawer layout </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등 공부</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2626,7 +2646,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2684,6 +2704,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3074,13 +3097,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -3111,7 +3134,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3412,7 +3435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3429,7 +3452,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3446,7 +3469,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3463,7 +3486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3480,7 +3503,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3497,7 +3520,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3514,7 +3537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3534,11 +3557,11 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3558,7 +3581,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3576,7 +3599,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3596,7 +3619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3616,7 +3639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3636,7 +3659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3656,7 +3679,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3676,7 +3699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3736,7 +3759,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -3788,7 +3811,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3812,7 +3835,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3971,14 +3994,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3998,7 +4021,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4016,7 +4039,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4036,7 +4059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4056,7 +4079,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4076,7 +4099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4096,7 +4119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4116,7 +4139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4137,7 +4160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4177,7 +4200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4197,7 +4220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4217,7 +4240,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4237,7 +4260,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4297,7 +4320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4317,7 +4340,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4337,7 +4360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -4357,13 +4380,25 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="3"/>
+    <row r="22" spans="1:6" ht="28.8">
+      <c r="A22" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>150</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="13"/>
@@ -4508,15 +4543,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4536,7 +4571,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4554,7 +4589,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4574,7 +4609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -4594,7 +4629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4614,7 +4649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4634,7 +4669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -4654,7 +4689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -4674,7 +4709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -4694,7 +4729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -4715,7 +4750,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4735,7 +4770,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4755,7 +4790,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -4775,7 +4810,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -4795,7 +4830,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -4815,7 +4850,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -4851,7 +4886,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5015,10 +5050,10 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5038,7 +5073,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5056,7 +5091,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5076,7 +5111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5224,7 +5259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -5303,7 +5338,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5327,7 +5362,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5490,10 +5525,10 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5513,7 +5548,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5531,7 +5566,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5551,7 +5586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -5571,7 +5606,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -5591,7 +5626,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -5611,7 +5646,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -5631,7 +5666,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -5651,7 +5686,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -5731,7 +5766,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5755,7 +5790,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5916,7 +5951,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5933,7 +5968,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5950,7 +5985,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182CA7FA-E8AF-4E7C-8A61-EA18B47DDF03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563A40AD-6E58-45D1-AD3F-EEB836EA7A93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2458,6 +2458,14 @@
       </rPr>
       <t>등 공부</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio weekview calendar 공부 및 gui 구성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3995,7 +4003,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
@@ -4400,13 +4408,25 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="3"/>
+    <row r="23" spans="1:6" ht="15.6">
+      <c r="A23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>120</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="13"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563A40AD-6E58-45D1-AD3F-EEB836EA7A93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D07A07-29F9-4F73-AE31-03843BB2DDDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2466,6 +2466,76 @@
   </si>
   <si>
     <t>Android Studio weekview calendar 공부 및 gui 구성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Initial Dataset 수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 및 추가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성 관련 조모임</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Initial dataset </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취합</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2654,7 +2724,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2715,6 +2785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3105,16 +3176,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3126,7 +3197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -3141,8 +3212,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3443,7 +3514,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3460,7 +3531,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3477,7 +3548,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3494,7 +3565,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3511,7 +3582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3528,7 +3599,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3545,7 +3616,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3561,18 +3632,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3589,7 +3660,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3607,7 +3678,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3627,7 +3698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3647,7 +3718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3667,7 +3738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3687,7 +3758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3707,7 +3778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3767,7 +3838,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -3787,21 +3858,45 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="3"/>
+    <row r="14" spans="1:6" ht="16">
+      <c r="A14" s="13">
+        <v>43778</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16">
+      <c r="A15" s="13">
+        <v>43781</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>60</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="13"/>
@@ -3819,7 +3914,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3843,7 +3938,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4002,17 +4097,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4124,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4047,7 +4142,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4067,7 +4162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4087,7 +4182,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4107,7 +4202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4127,7 +4222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4147,7 +4242,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4168,7 +4263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4208,7 +4303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4228,7 +4323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4248,7 +4343,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4268,7 +4363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4328,7 +4423,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4348,7 +4443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4368,7 +4463,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -4388,7 +4483,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="28.5">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -4408,7 +4503,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -4567,14 +4662,14 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4591,7 +4686,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4609,7 +4704,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4629,7 +4724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -4649,7 +4744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4669,7 +4764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4689,7 +4784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -4709,7 +4804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -4729,7 +4824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="13">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -4749,7 +4844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="13">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -4770,7 +4865,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4790,7 +4885,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="13">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4810,7 +4905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="13">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -4830,7 +4925,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="13">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -4850,7 +4945,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6" ht="13">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -4870,7 +4965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -4906,7 +5001,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5070,13 +5165,13 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5093,7 +5188,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5111,7 +5206,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5131,7 +5226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5279,7 +5374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -5358,7 +5453,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5382,7 +5477,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5545,13 +5640,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="50.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5568,7 +5663,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5586,7 +5681,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5606,7 +5701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -5626,7 +5721,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -5646,7 +5741,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -5666,7 +5761,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -5686,7 +5781,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -5706,7 +5801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -5786,7 +5881,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5810,7 +5905,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5971,7 +6066,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5988,7 +6083,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6005,7 +6100,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D07A07-29F9-4F73-AE31-03843BB2DDDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CA6232-8D9C-4247-A7DB-59F626C96529}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="102">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2536,6 +2536,22 @@
       </rPr>
       <t>취합</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI 구성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 추천용 initial dataset 취합</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio weekview calendar 공부 및 GUI 구성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3176,16 +3192,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.9" customHeight="1">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3197,7 +3213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.9" customHeight="1">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -3212,8 +3228,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3514,7 +3530,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3531,7 +3547,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3548,7 +3564,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3565,7 +3581,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3582,7 +3598,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3599,7 +3615,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3616,7 +3632,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3632,18 +3648,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3660,7 +3676,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3678,7 +3694,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3698,7 +3714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3718,7 +3734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3738,7 +3754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3758,7 +3774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3778,7 +3794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3838,7 +3854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -3858,7 +3874,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -3878,7 +3894,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -3914,7 +3930,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3938,7 +3954,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4097,17 +4113,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4124,7 +4140,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4142,7 +4158,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4162,7 +4178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4182,7 +4198,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4202,7 +4218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4222,7 +4238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4242,7 +4258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4263,7 +4279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4303,7 +4319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4323,7 +4339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4343,7 +4359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4363,7 +4379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4423,7 +4439,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4443,7 +4459,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4463,7 +4479,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -4483,7 +4499,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5">
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -4503,7 +4519,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -4520,24 +4536,48 @@
         <v>120</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="3"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6">
+      <c r="A24" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>40</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>60</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="13"/>
@@ -4662,14 +4702,14 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4686,7 +4726,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4704,7 +4744,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4724,7 +4764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -4744,7 +4784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4764,7 +4804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4784,7 +4824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -4804,7 +4844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -4824,7 +4864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -4844,7 +4884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -4865,7 +4905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4885,7 +4925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4905,7 +4945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -4925,7 +4965,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -4945,7 +4985,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -4965,7 +5005,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5001,7 +5041,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5165,13 +5205,13 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5188,7 +5228,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5206,7 +5246,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5226,7 +5266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5374,7 +5414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -5453,7 +5493,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5477,7 +5517,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5640,13 +5680,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5663,7 +5703,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5681,7 +5721,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5701,7 +5741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -5721,7 +5761,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -5741,7 +5781,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -5761,7 +5801,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -5781,7 +5821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -5801,7 +5841,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -5881,7 +5921,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5905,7 +5945,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6066,7 +6106,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6083,7 +6123,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6100,7 +6140,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CA6232-8D9C-4247-A7DB-59F626C96529}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3614A816-A753-4914-8DDF-169EE62AD793}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15105" yWindow="3675" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2465,10 +2465,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Android Studio weekview calendar 공부 및 gui 구성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Initial Dataset 수정</t>
     </r>
@@ -2552,6 +2548,176 @@
   </si>
   <si>
     <t>Android Studio weekview calendar 공부 및 GUI 구성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정 및 각 column 정의 문서 작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class diagram, table diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. SAD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3192,13 +3358,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -3229,7 +3395,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3530,7 +3696,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3547,7 +3713,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3564,7 +3730,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3581,7 +3747,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3598,7 +3764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3615,7 +3781,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3632,7 +3798,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3652,11 +3818,11 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3676,7 +3842,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3694,7 +3860,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3714,7 +3880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3734,7 +3900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3754,7 +3920,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3774,7 +3940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3794,7 +3960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -3854,7 +4020,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -3874,7 +4040,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -3891,10 +4057,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -3911,7 +4077,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3930,7 +4096,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3954,7 +4120,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4113,14 +4279,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4140,7 +4306,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4158,7 +4324,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4178,7 +4344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4198,7 +4364,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4218,7 +4384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4238,7 +4404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4258,7 +4424,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4279,7 +4445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4319,7 +4485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4339,7 +4505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4359,7 +4525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4379,7 +4545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4439,7 +4605,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4459,7 +4625,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4479,7 +4645,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -4499,7 +4665,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -4519,7 +4685,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -4536,12 +4702,12 @@
         <v>120</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -4556,12 +4722,12 @@
         <v>40</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2">
         <v>4.1666666666666664E-2</v>
@@ -4576,7 +4742,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4698,15 +4864,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4726,7 +4892,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4744,7 +4910,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4764,7 +4930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -4784,7 +4950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4804,7 +4970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4824,7 +4990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -4844,7 +5010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -4864,7 +5030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -4884,7 +5050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -4905,7 +5071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4925,7 +5091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4945,7 +5111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -4965,7 +5131,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -4985,7 +5151,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -5005,7 +5171,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5025,23 +5191,48 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>40</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.96875</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <f>HOUR(C20)*60+MINUTE(C20)-(HOUR(B20)*60+MINUTE(B20)+D20)</f>
+        <v>105</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5202,13 +5393,13 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5228,7 +5419,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5246,7 +5437,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5266,7 +5457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5414,7 +5605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -5493,7 +5684,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5517,7 +5708,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5680,10 +5871,10 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5703,7 +5894,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5721,7 +5912,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5741,7 +5932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -5761,7 +5952,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -5781,7 +5972,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -5801,7 +5992,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -5821,7 +6012,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -5841,7 +6032,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -5921,7 +6112,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5945,7 +6136,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6106,7 +6297,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6123,7 +6314,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6140,7 +6331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3614A816-A753-4914-8DDF-169EE62AD793}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1659B-48FD-42C4-BDD1-DC81BE485DDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15105" yWindow="3675" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2717,6 +2717,44 @@
         <charset val="129"/>
       </rPr>
       <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 시스템 로직 정리 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ppt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성 </t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3358,16 +3396,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -3394,8 +3432,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3696,7 +3734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3713,7 +3751,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3730,7 +3768,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3747,7 +3785,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3764,7 +3802,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3781,7 +3819,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3798,7 +3836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3814,18 +3852,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3842,7 +3880,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3860,7 +3898,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3880,7 +3918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3900,7 +3938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3920,7 +3958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3940,7 +3978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3960,7 +3998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4020,7 +4058,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4040,7 +4078,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4060,7 +4098,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4080,13 +4118,25 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
+    <row r="16" spans="1:6" ht="16">
+      <c r="A16" s="13">
+        <v>43782</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>210</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="13"/>
@@ -4096,7 +4146,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4120,7 +4170,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4283,13 +4333,13 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4306,7 +4356,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4324,7 +4374,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4344,7 +4394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4364,7 +4414,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4384,7 +4434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4404,7 +4454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4424,7 +4474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4445,7 +4495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4485,7 +4535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4505,7 +4555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4525,7 +4575,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4545,7 +4595,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4605,7 +4655,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4625,7 +4675,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4645,7 +4695,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -4665,7 +4715,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25">
+    <row r="22" spans="1:6" ht="28.5">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -4685,7 +4735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -4705,7 +4755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -4864,18 +4914,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4892,7 +4942,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4910,7 +4960,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4930,7 +4980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -4950,7 +5000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4970,7 +5020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4990,7 +5040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -5010,7 +5060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -5030,7 +5080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" ht="13">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -5050,7 +5100,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="13">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -5071,7 +5121,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -5091,7 +5141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="13">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -5111,7 +5161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -5131,7 +5181,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" ht="13">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -5151,7 +5201,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" ht="13">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -5171,7 +5221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5191,7 +5241,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="13" t="s">
         <v>101</v>
       </c>
@@ -5211,7 +5261,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13" t="s">
         <v>101</v>
       </c>
@@ -5232,7 +5282,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5396,13 +5446,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5419,7 +5469,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5437,7 +5487,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5457,7 +5507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5605,7 +5655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -5684,7 +5734,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5708,7 +5758,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5871,13 +5921,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="50.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5894,7 +5944,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5912,7 +5962,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5932,7 +5982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -5952,7 +6002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -5972,7 +6022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -5992,7 +6042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -6012,7 +6062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -6032,7 +6082,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -6112,7 +6162,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6136,7 +6186,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6297,7 +6347,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6314,7 +6364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6331,7 +6381,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1659B-48FD-42C4-BDD1-DC81BE485DDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3A2165-3731-4D14-ABA8-FABE3D5CB2F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="109">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2539,10 +2539,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GUI 구성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>장소 추천용 initial dataset 취합</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2756,6 +2752,65 @@
       </rPr>
       <t xml:space="preserve">작성 </t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GUI 구성 및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">material calendar view </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공부</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 일정 추가 파트 GUI 구성 및 listview 공부</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3396,16 +3451,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.9" customHeight="1">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3417,7 +3472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.9" customHeight="1">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -3432,8 +3487,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3734,7 +3789,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3751,7 +3806,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3768,7 +3823,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3785,7 +3840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3802,7 +3857,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3819,7 +3874,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3836,7 +3891,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3852,18 +3907,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3880,7 +3935,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3898,7 +3953,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3918,7 +3973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3938,7 +3993,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -3958,7 +4013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -3978,7 +4033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -3998,7 +4053,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4058,7 +4113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4078,7 +4133,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4098,7 +4153,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4118,7 +4173,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4135,7 +4190,7 @@
         <v>210</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4146,7 +4201,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4170,7 +4225,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4329,17 +4384,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4356,7 +4411,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4374,7 +4429,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4394,7 +4449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4414,7 +4469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4434,7 +4489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4454,7 +4509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4474,7 +4529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4495,7 +4550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4535,7 +4590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4555,7 +4610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4575,7 +4630,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4595,7 +4650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4655,7 +4710,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4675,7 +4730,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4695,7 +4750,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -4715,7 +4770,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5">
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -4735,7 +4790,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -4752,10 +4807,10 @@
         <v>120</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -4772,10 +4827,10 @@
         <v>40</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -4792,24 +4847,48 @@
         <v>60</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="3"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6">
+      <c r="A26" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>180</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6">
+      <c r="A27" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>60</v>
+      </c>
+      <c r="E27" s="16">
+        <v>240</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="13"/>
@@ -4918,14 +4997,14 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4942,7 +5021,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4960,7 +5039,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4980,7 +5059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -5000,7 +5079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -5020,7 +5099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5040,7 +5119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -5060,7 +5139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -5080,7 +5159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -5100,7 +5179,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -5121,7 +5200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -5141,7 +5220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -5161,7 +5240,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -5181,7 +5260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -5201,7 +5280,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -5221,7 +5300,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5241,9 +5320,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2">
         <v>0.5</v>
@@ -5258,12 +5337,12 @@
         <v>40</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2">
         <v>0.89583333333333337</v>
@@ -5279,10 +5358,10 @@
         <v>105</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5446,13 +5525,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5469,7 +5548,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5487,7 +5566,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5507,7 +5586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5655,7 +5734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -5734,7 +5813,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5758,7 +5837,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5921,13 +6000,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5944,7 +6023,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5962,7 +6041,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5982,7 +6061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -6002,7 +6081,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -6022,7 +6101,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -6042,7 +6121,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -6062,7 +6141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -6082,7 +6161,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -6162,7 +6241,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6186,7 +6265,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6347,7 +6426,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6364,7 +6443,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6381,7 +6460,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3A2165-3731-4D14-ABA8-FABE3D5CB2F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42BFA20-7DEF-4120-ABCE-7BD42DC2921C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2774,10 +2774,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>19.11.17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>GUI 구성 및</t>
     </r>
@@ -2811,6 +2807,14 @@
   </si>
   <si>
     <t>개인 일정 추가 파트 GUI 구성 및 listview 공부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment 공부 및 적용, 각종 에러들 해결</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4385,7 +4389,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
@@ -4867,12 +4871,12 @@
         <v>180</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2">
         <v>0.875</v>
@@ -4887,16 +4891,28 @@
         <v>240</v>
       </c>
       <c r="F27" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6">
+      <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
+        <v>240</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="13"/>
@@ -4994,7 +5010,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42BFA20-7DEF-4120-ABCE-7BD42DC2921C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C737228-DEBA-4DB2-8533-84B4508F5F7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17130" yWindow="2820" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2815,6 +2815,14 @@
   </si>
   <si>
     <t>fragment 공부 및 적용, 각종 에러들 해결</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP 수정 및 Spec Update</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3455,13 +3463,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -3492,7 +3500,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3793,7 +3801,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3810,7 +3818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3827,7 +3835,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3844,7 +3852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3861,7 +3869,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3878,7 +3886,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3895,7 +3903,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3915,11 +3923,11 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3939,7 +3947,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3957,7 +3965,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3977,7 +3985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -3997,7 +4005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4017,7 +4025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4037,7 +4045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4057,7 +4065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4117,7 +4125,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4137,7 +4145,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4157,7 +4165,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4177,7 +4185,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4205,7 +4213,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4229,7 +4237,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4388,14 +4396,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4415,7 +4423,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4433,7 +4441,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4453,7 +4461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4473,7 +4481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4493,7 +4501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4513,7 +4521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4533,7 +4541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4554,7 +4562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4594,7 +4602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4614,7 +4622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4634,7 +4642,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4654,7 +4662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4714,7 +4722,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4734,7 +4742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4754,7 +4762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -4774,7 +4782,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -4794,7 +4802,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -4814,7 +4822,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -4834,7 +4842,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -4854,7 +4862,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -4874,7 +4882,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -4894,7 +4902,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5009,15 +5017,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5037,7 +5045,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5055,7 +5063,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5075,7 +5083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -5115,7 +5123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5135,7 +5143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -5155,7 +5163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -5175,7 +5183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -5195,7 +5203,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -5216,7 +5224,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -5236,7 +5244,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -5256,7 +5264,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -5276,7 +5284,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -5296,7 +5304,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -5316,7 +5324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5336,7 +5344,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="13" t="s">
         <v>100</v>
       </c>
@@ -5356,7 +5364,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="13" t="s">
         <v>100</v>
       </c>
@@ -5377,13 +5385,25 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>40</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="13"/>
@@ -5541,10 +5561,10 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5564,7 +5584,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5582,7 +5602,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5602,7 +5622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5750,7 +5770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -5829,7 +5849,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5853,7 +5873,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6016,10 +6036,10 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6039,7 +6059,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6057,7 +6077,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6077,7 +6097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -6097,7 +6117,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -6117,7 +6137,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -6137,7 +6157,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -6157,7 +6177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -6177,7 +6197,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -6257,7 +6277,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6281,7 +6301,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6442,7 +6462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6459,7 +6479,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6476,7 +6496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C737228-DEBA-4DB2-8533-84B4508F5F7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79488CFF-2D69-4BF4-8DAC-BA636D29F6D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17130" yWindow="2820" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13530" yWindow="3855" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2823,6 +2823,42 @@
   </si>
   <si>
     <t>PMP 수정 및 Spec Update</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MySQL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">연동을 위한 웹서버, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">php </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환경 구축</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5018,7 +5054,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -5405,13 +5441,26 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="3"/>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="D22" s="8">
+        <v>45</v>
+      </c>
+      <c r="E22" s="16">
+        <f>HOUR(C22)*60+MINUTE(C22)-(HOUR(B22)*60+MINUTE(B22)+D22)</f>
+        <v>155</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="13"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79488CFF-2D69-4BF4-8DAC-BA636D29F6D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AC0C4D-B8E8-4ECF-B31C-8ED695BE1495}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13530" yWindow="3855" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2859,6 +2859,22 @@
       </rPr>
       <t>환경 구축</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 생성 파트 GUI구성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 일정 추가 파트 GUI 구성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3499,13 +3515,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -3536,7 +3552,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3837,7 +3853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3854,7 +3870,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3871,7 +3887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3888,7 +3904,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3905,7 +3921,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3922,7 +3938,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3939,7 +3955,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3959,11 +3975,11 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3983,7 +3999,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4001,7 +4017,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4021,7 +4037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4041,7 +4057,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4061,7 +4077,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4081,7 +4097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4101,7 +4117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4161,7 +4177,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4181,7 +4197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4201,7 +4217,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4221,7 +4237,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4249,7 +4265,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4273,7 +4289,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4432,14 +4448,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4459,7 +4475,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4477,7 +4493,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4497,7 +4513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4517,7 +4533,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4537,7 +4553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4557,7 +4573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4577,7 +4593,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4598,7 +4614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4638,7 +4654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4658,7 +4674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4678,7 +4694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4698,7 +4714,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4758,7 +4774,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4778,7 +4794,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4798,7 +4814,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -4818,7 +4834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25">
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -4838,7 +4854,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -4858,7 +4874,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -4878,7 +4894,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -4898,7 +4914,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -4918,7 +4934,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -4938,7 +4954,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -4958,21 +4974,45 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="3"/>
+    <row r="29" spans="1:6" ht="15.6">
+      <c r="A29" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>120</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6">
+      <c r="A30" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>120</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="13"/>
@@ -5053,15 +5093,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5081,7 +5121,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5099,7 +5139,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5119,7 +5159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -5139,7 +5179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -5159,7 +5199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5179,7 +5219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -5199,7 +5239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -5219,7 +5259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -5239,7 +5279,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -5260,7 +5300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -5280,7 +5320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -5300,7 +5340,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -5320,7 +5360,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -5340,7 +5380,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -5360,7 +5400,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5380,7 +5420,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>100</v>
       </c>
@@ -5400,7 +5440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>100</v>
       </c>
@@ -5421,7 +5461,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>110</v>
       </c>
@@ -5441,7 +5481,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>112</v>
       </c>
@@ -5610,10 +5650,10 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5633,7 +5673,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5651,7 +5691,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5671,7 +5711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5819,7 +5859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -5898,7 +5938,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5922,7 +5962,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6085,10 +6125,10 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6108,7 +6148,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6126,7 +6166,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6146,7 +6186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -6166,7 +6206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -6186,7 +6226,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -6206,7 +6246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -6226,7 +6266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -6246,7 +6286,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -6326,7 +6366,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6350,7 +6390,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6511,7 +6551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6528,7 +6568,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6545,7 +6585,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AC0C4D-B8E8-4ECF-B31C-8ED695BE1495}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E9ABC-0919-4256-AC54-EFCBEEEA76B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="123">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2875,6 +2875,26 @@
   </si>
   <si>
     <t>개인 일정 추가 파트 GUI 구성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI 구성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 회원가입 파트 구현</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4448,12 +4468,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
@@ -5015,36 +5036,84 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>180</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="3"/>
+      <c r="A32" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D32" s="8">
+        <v>60</v>
+      </c>
+      <c r="E32" s="16">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="3"/>
+      <c r="A33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D33" s="8">
+        <v>40</v>
+      </c>
+      <c r="E33" s="16">
+        <v>420</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6">
+      <c r="A34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>90</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="13"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E9ABC-0919-4256-AC54-EFCBEEEA76B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C73DD-33E4-459C-9326-D4967E8B8B05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="126">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2895,6 +2895,64 @@
   </si>
   <si>
     <t>로그인, 회원가입 파트 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> weekview calendar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI 수정 및 weekview calendar 추가</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4469,7 +4527,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
@@ -5115,13 +5173,25 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="3"/>
+    <row r="35" spans="1:6" ht="15.6">
+      <c r="A35" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D35" s="8">
+        <v>60</v>
+      </c>
+      <c r="E35" s="16">
+        <v>120</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="13"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C73DD-33E4-459C-9326-D4967E8B8B05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E852DA-0E70-46E7-8717-86009F061611}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2902,25 +2902,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">GUI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+    <t>GUI 수정 및 weekview calendar 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">안드로이드 스튜디오 사용을 위한 자바 </t>
     </r>
     <r>
       <rPr>
@@ -2929,16 +2922,17 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> weekview calendar </t>
+      <t>내용 복습</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드 스튜디오 기초 내용 학습</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>시간</t>
     </r>
     <r>
       <rPr>
@@ -2947,12 +2941,8 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>추가</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUI 수정 및 weekview calendar 추가</t>
+      <t xml:space="preserve"> 추천 안드로이드 스튜디오 코드 작성</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3593,16 +3583,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3614,7 +3604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -3629,8 +3619,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3931,7 +3921,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3948,7 +3938,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3965,7 +3955,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3982,7 +3972,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3999,7 +3989,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4016,7 +4006,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4033,7 +4023,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4049,18 +4039,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4077,7 +4067,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4095,7 +4085,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4115,7 +4105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4135,7 +4125,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4155,7 +4145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4175,7 +4165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4195,7 +4185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4255,7 +4245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4275,7 +4265,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4295,7 +4285,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4315,7 +4305,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4335,45 +4325,105 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.8">
-      <c r="A18" s="13"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="13.8">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
+    <row r="17" spans="1:6" ht="16">
+      <c r="A17" s="13">
+        <v>43791</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>120</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13">
+      <c r="A18" s="13">
+        <v>43792</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>120</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13">
+      <c r="A19" s="13">
+        <v>43793</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D19" s="8">
+        <v>120</v>
+      </c>
+      <c r="E19" s="16">
+        <v>360</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13">
+      <c r="A20" s="13">
+        <v>43794</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>120</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13">
+      <c r="A21" s="13">
+        <v>43795</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>120</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="13"/>
@@ -4526,18 +4576,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4554,7 +4604,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4572,7 +4622,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4592,7 +4642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4612,7 +4662,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4632,7 +4682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4652,7 +4702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4672,7 +4722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4693,7 +4743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4733,7 +4783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4753,7 +4803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4773,7 +4823,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4793,7 +4843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4853,7 +4903,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4873,7 +4923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4893,7 +4943,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -4913,7 +4963,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="28.5">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -4933,7 +4983,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -4953,7 +5003,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -4973,7 +5023,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -4993,7 +5043,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5013,7 +5063,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5033,7 +5083,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5053,7 +5103,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="16">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -5073,7 +5123,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5153,7 +5203,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="16">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -5173,7 +5223,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="16">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -5190,7 +5240,7 @@
         <v>120</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5232,18 +5282,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5260,7 +5310,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5278,7 +5328,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5298,7 +5348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -5318,7 +5368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -5338,7 +5388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5358,7 +5408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -5378,7 +5428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -5398,7 +5448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="13">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -5418,7 +5468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="13">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -5439,7 +5489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -5459,7 +5509,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="13">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -5479,7 +5529,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="13">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -5499,7 +5549,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="13">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -5519,7 +5569,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6" ht="13">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -5539,7 +5589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5559,7 +5609,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="13" t="s">
         <v>100</v>
       </c>
@@ -5579,7 +5629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13" t="s">
         <v>100</v>
       </c>
@@ -5600,7 +5650,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13" t="s">
         <v>110</v>
       </c>
@@ -5620,7 +5670,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="13">
       <c r="A22" s="13" t="s">
         <v>112</v>
       </c>
@@ -5789,13 +5839,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5812,7 +5862,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5830,7 +5880,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5850,7 +5900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5998,7 +6048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -6077,7 +6127,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6101,7 +6151,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6264,13 +6314,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="50.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6287,7 +6337,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6305,7 +6355,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6325,7 +6375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -6345,7 +6395,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -6365,7 +6415,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -6385,7 +6435,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -6405,7 +6455,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -6425,7 +6475,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -6505,7 +6555,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6529,7 +6579,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6690,7 +6740,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6707,7 +6757,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6724,7 +6774,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E852DA-0E70-46E7-8717-86009F061611}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA07FD8F-95E0-4AEE-9F9F-950DEC34E46A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7350" yWindow="4185" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="135">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2943,6 +2943,34 @@
       </rPr>
       <t xml:space="preserve"> 추천 안드로이드 스튜디오 코드 작성</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드 스튜디오 빌드 설정 변경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드 스튜디오 가상머신 설정 변경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 관련 함수 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 구현</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3131,7 +3159,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3193,6 +3221,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3583,16 +3612,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.9" customHeight="1">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3604,7 +3633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.9" customHeight="1">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -3619,8 +3648,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3921,7 +3950,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3938,7 +3967,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3955,7 +3984,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3972,7 +4001,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3989,7 +4018,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4006,7 +4035,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4023,7 +4052,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4039,18 +4068,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4067,7 +4096,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4085,7 +4114,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4105,7 +4134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4125,7 +4154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4145,7 +4174,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4165,7 +4194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4185,7 +4214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4245,7 +4274,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4265,7 +4294,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4285,7 +4314,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4305,7 +4334,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4325,7 +4354,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -4345,7 +4374,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -4365,7 +4394,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -4385,7 +4414,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -4405,7 +4434,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -4580,14 +4609,14 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4604,7 +4633,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4622,7 +4651,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4642,7 +4671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4662,7 +4691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4682,7 +4711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4702,7 +4731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4722,7 +4751,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4743,7 +4772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4783,7 +4812,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4803,7 +4832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4823,7 +4852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4843,7 +4872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4903,7 +4932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4923,7 +4952,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4943,7 +4972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16">
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -4963,7 +4992,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5">
+    <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -4983,7 +5012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -5003,7 +5032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -5023,7 +5052,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -5043,7 +5072,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5063,7 +5092,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5083,7 +5112,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5103,7 +5132,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16">
+    <row r="29" spans="1:6" ht="13.5">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -5123,7 +5152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5203,7 +5232,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16">
+    <row r="34" spans="1:6" ht="13.5">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -5223,7 +5252,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16">
+    <row r="35" spans="1:6" ht="13.5">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -5282,18 +5311,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5310,7 +5339,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5328,7 +5357,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5348,7 +5377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -5368,7 +5397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -5388,7 +5417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5408,7 +5437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -5428,7 +5457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -5448,7 +5477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -5468,7 +5497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -5489,7 +5518,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -5509,7 +5538,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -5529,7 +5558,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -5549,7 +5578,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -5569,7 +5598,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -5589,7 +5618,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5609,7 +5638,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="13" t="s">
         <v>100</v>
       </c>
@@ -5629,7 +5658,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="13" t="s">
         <v>100</v>
       </c>
@@ -5650,7 +5679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
         <v>110</v>
       </c>
@@ -5670,7 +5699,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="13" t="s">
         <v>112</v>
       </c>
@@ -5691,37 +5720,85 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="3"/>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>30</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15">
+      <c r="A24" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>20</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15">
+      <c r="A25" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>40</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D26" s="8">
+        <v>40</v>
+      </c>
+      <c r="E26" s="16">
+        <v>50</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="13"/>
@@ -5839,13 +5916,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5862,7 +5939,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5880,7 +5957,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5900,7 +5977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -6048,7 +6125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -6127,7 +6204,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6151,7 +6228,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6314,13 +6391,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6337,7 +6414,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6355,7 +6432,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6375,7 +6452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -6395,7 +6472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -6415,7 +6492,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -6435,7 +6512,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -6455,7 +6532,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -6475,7 +6552,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -6555,7 +6632,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6579,7 +6656,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6740,7 +6817,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6757,7 +6834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6774,7 +6851,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA07FD8F-95E0-4AEE-9F9F-950DEC34E46A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0200566-8D89-4F17-AD08-F56AF9175922}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="4185" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2971,6 +2971,14 @@
   </si>
   <si>
     <t>피드백 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로 가기 기능, 알림 메시지, 외부 일정 연동 페이지 추가 및 SRS 1.2 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3159,7 +3167,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3222,6 +3230,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3612,13 +3623,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -3649,7 +3660,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3950,7 +3961,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3967,7 +3978,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3984,7 +3995,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4001,7 +4012,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4018,7 +4029,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4035,7 +4046,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4052,7 +4063,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4072,11 +4083,11 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4096,7 +4107,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4114,7 +4125,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4134,7 +4145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4154,7 +4165,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4174,7 +4185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4194,7 +4205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4214,7 +4225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4274,7 +4285,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4294,7 +4305,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4314,7 +4325,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4334,7 +4345,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4354,7 +4365,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -4374,7 +4385,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -4394,7 +4405,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -4414,7 +4425,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -4434,7 +4445,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -4605,15 +4616,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4633,7 +4644,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4651,7 +4662,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4671,7 +4682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4691,7 +4702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4711,7 +4722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4731,7 +4742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4751,7 +4762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4772,7 +4783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4812,7 +4823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4832,7 +4843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4852,7 +4863,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4872,7 +4883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4932,7 +4943,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4952,7 +4963,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4972,7 +4983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -4992,7 +5003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25">
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -5012,7 +5023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -5032,7 +5043,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -5052,7 +5063,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -5072,7 +5083,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5092,7 +5103,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5112,7 +5123,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5132,7 +5143,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -5152,7 +5163,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5232,7 +5243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -5252,7 +5263,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -5272,13 +5283,25 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="3"/>
+    <row r="36" spans="1:6" ht="31.2">
+      <c r="A36" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>150</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3"/>
@@ -5311,15 +5334,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5339,7 +5362,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5357,7 +5380,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5377,7 +5400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -5397,7 +5420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -5417,7 +5440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5437,7 +5460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -5457,7 +5480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -5477,7 +5500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -5497,7 +5520,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -5518,7 +5541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -5538,7 +5561,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -5558,7 +5581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -5578,7 +5601,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -5598,7 +5621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -5618,7 +5641,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5638,7 +5661,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>100</v>
       </c>
@@ -5658,7 +5681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>100</v>
       </c>
@@ -5679,7 +5702,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>110</v>
       </c>
@@ -5699,7 +5722,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>112</v>
       </c>
@@ -5720,7 +5743,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13" t="s">
         <v>128</v>
       </c>
@@ -5740,7 +5763,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13" t="s">
         <v>130</v>
       </c>
@@ -5760,7 +5783,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13" t="s">
         <v>130</v>
       </c>
@@ -5780,7 +5803,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15">
+    <row r="26" spans="1:6" ht="13.8">
       <c r="A26" s="13" t="s">
         <v>133</v>
       </c>
@@ -5916,10 +5939,10 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5939,7 +5962,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5957,7 +5980,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5977,7 +6000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -6125,7 +6148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -6204,7 +6227,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6228,7 +6251,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6391,10 +6414,10 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6414,7 +6437,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6432,7 +6455,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6452,7 +6475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -6472,7 +6495,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -6492,7 +6515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -6512,7 +6535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -6532,7 +6555,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -6552,7 +6575,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -6632,7 +6655,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6656,7 +6679,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6817,7 +6840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6834,7 +6857,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6851,7 +6874,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0200566-8D89-4F17-AD08-F56AF9175922}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFA1025-49ED-4465-A4E6-96BBA526DC3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11775" yWindow="4095" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="139">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2979,6 +2979,25 @@
   </si>
   <si>
     <t>뒤로 가기 기능, 알림 메시지, 외부 일정 연동 페이지 추가 및 SRS 1.2 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">php - Mysql </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동 구축</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3623,13 +3642,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -3660,7 +3679,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3961,7 +3980,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3978,7 +3997,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3995,7 +4014,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4012,7 +4031,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4029,7 +4048,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4046,7 +4065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4063,7 +4082,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4083,11 +4102,11 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4107,7 +4126,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4125,7 +4144,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4145,7 +4164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4165,7 +4184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4185,7 +4204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4205,7 +4224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4225,7 +4244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4285,7 +4304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4305,7 +4324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4325,7 +4344,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4345,7 +4364,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4365,7 +4384,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -4385,7 +4404,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -4405,7 +4424,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -4425,7 +4444,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -4445,7 +4464,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -4616,15 +4635,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4644,7 +4663,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4662,7 +4681,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4682,7 +4701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4702,7 +4721,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4722,7 +4741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -4742,7 +4761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4762,7 +4781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4783,7 +4802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -4823,7 +4842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -4843,7 +4862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -4863,7 +4882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -4883,7 +4902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -4943,7 +4962,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4963,7 +4982,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -4983,7 +5002,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -5003,7 +5022,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -5023,7 +5042,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -5043,7 +5062,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -5063,7 +5082,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -5083,7 +5102,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5103,7 +5122,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5123,7 +5142,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5143,7 +5162,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="13.5">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -5163,7 +5182,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5243,7 +5262,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="13.5">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -5263,7 +5282,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="13.5">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -5283,7 +5302,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.2">
+    <row r="36" spans="1:6" ht="27">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -5334,15 +5353,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5362,7 +5381,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5380,7 +5399,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5400,7 +5419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -5420,7 +5439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -5440,7 +5459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5460,7 +5479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -5480,7 +5499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -5500,7 +5519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -5520,7 +5539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -5541,7 +5560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -5561,7 +5580,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -5581,7 +5600,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -5601,7 +5620,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -5621,7 +5640,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -5641,7 +5660,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5661,7 +5680,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="13" t="s">
         <v>100</v>
       </c>
@@ -5681,7 +5700,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="13" t="s">
         <v>100</v>
       </c>
@@ -5702,7 +5721,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
         <v>110</v>
       </c>
@@ -5722,7 +5741,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="13" t="s">
         <v>112</v>
       </c>
@@ -5743,7 +5762,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="13" t="s">
         <v>128</v>
       </c>
@@ -5763,7 +5782,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="13" t="s">
         <v>130</v>
       </c>
@@ -5783,7 +5802,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="13" t="s">
         <v>130</v>
       </c>
@@ -5803,7 +5822,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="13" t="s">
         <v>133</v>
       </c>
@@ -5823,13 +5842,25 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="3"/>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>140</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="13"/>
@@ -5939,10 +5970,10 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5962,7 +5993,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5980,7 +6011,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6000,7 +6031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -6148,7 +6179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -6227,7 +6258,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6251,7 +6282,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6414,10 +6445,10 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6437,7 +6468,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6455,7 +6486,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6475,7 +6506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -6495,7 +6526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -6515,7 +6546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -6535,7 +6566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -6555,7 +6586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -6575,7 +6606,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -6655,7 +6686,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6679,7 +6710,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6840,7 +6871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6857,7 +6888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6874,7 +6905,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFA1025-49ED-4465-A4E6-96BBA526DC3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE97F84-8397-429E-9EFB-05B9A74D4A62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11775" yWindow="4095" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="141">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2986,6 +2986,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>19.12.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">php - Mysql </t>
     </r>
@@ -2996,7 +3000,36 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>연동 구축</t>
+      <t>연동 구현</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자바 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">php </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동 구현</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5353,8 +5386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -5859,16 +5892,28 @@
         <v>140</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15">
+      <c r="A28" s="13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="D28" s="8">
+        <v>35</v>
+      </c>
+      <c r="E28" s="16">
+        <v>105</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="13"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE97F84-8397-429E-9EFB-05B9A74D4A62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41FD7EA-10EC-4A9F-A8A1-BB34F89301D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="143">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3030,6 +3030,42 @@
         <charset val="129"/>
       </rPr>
       <t>연동 구현</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB boundary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함수 구현, 실제 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구축</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5915,13 +5951,25 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="3"/>
+    <row r="29" spans="1:6" ht="15">
+      <c r="A29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D29" s="8">
+        <v>20</v>
+      </c>
+      <c r="E29" s="16">
+        <v>190</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="13"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41FD7EA-10EC-4A9F-A8A1-BB34F89301D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8224C33D-EE27-4A94-8D71-434C77C66D78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="3060" windowWidth="20310" windowHeight="16110" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="151">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3066,6 +3066,212 @@
         <charset val="129"/>
       </rPr>
       <t>구축</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모임등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UseCase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드작업</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Everytime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB boundary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">피드백 부분 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test Scenario </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SRS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5422,8 +5628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -5971,13 +6177,25 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="3"/>
+    <row r="30" spans="1:6" ht="15">
+      <c r="A30" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>220</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="13"/>
@@ -6534,8 +6752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -6740,52 +6958,124 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>120</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>140</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>170</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>120</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="13"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
+      <c r="A18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>110</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="13"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8224C33D-EE27-4A94-8D71-434C77C66D78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDEDC9D-BE59-47AB-B9BC-B0309B7E200C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="3060" windowWidth="20310" windowHeight="16110" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2892" windowWidth="17208" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3273,6 +3273,14 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>intent로 정보 넘기기 추가</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3917,13 +3925,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -3954,7 +3962,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4255,7 +4263,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4272,7 +4280,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4289,7 +4297,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4306,7 +4314,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4323,7 +4331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4340,7 +4348,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4357,7 +4365,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4377,11 +4385,11 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4401,7 +4409,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4419,7 +4427,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4439,7 +4447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4459,7 +4467,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4479,7 +4487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4499,7 +4507,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4519,7 +4527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4579,7 +4587,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4599,7 +4607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4619,7 +4627,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4639,7 +4647,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4659,7 +4667,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -4679,7 +4687,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -4699,7 +4707,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -4719,7 +4727,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -4739,7 +4747,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -4910,15 +4918,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4938,7 +4946,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4956,7 +4964,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4976,7 +4984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -4996,7 +5004,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -5016,7 +5024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -5036,7 +5044,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -5056,7 +5064,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -5077,7 +5085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -5117,7 +5125,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -5137,7 +5145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -5157,7 +5165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -5177,7 +5185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -5237,7 +5245,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -5257,7 +5265,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -5277,7 +5285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -5297,7 +5305,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25">
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -5317,7 +5325,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -5337,7 +5345,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -5357,7 +5365,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -5377,7 +5385,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5397,7 +5405,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5417,7 +5425,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5437,7 +5445,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -5457,7 +5465,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5537,7 +5545,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -5557,7 +5565,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -5577,7 +5585,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27">
+    <row r="36" spans="1:6" ht="31.2">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -5597,13 +5605,25 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="3"/>
+    <row r="37" spans="1:6" ht="15.6">
+      <c r="A37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>50</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3"/>
@@ -5632,11 +5652,11 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5656,7 +5676,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5674,7 +5694,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5694,7 +5714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -5714,7 +5734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -5734,7 +5754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5754,7 +5774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -5774,7 +5794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -5794,7 +5814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -5814,7 +5834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -5835,7 +5855,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -5855,7 +5875,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -5875,7 +5895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -5895,7 +5915,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -5915,7 +5935,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -5935,7 +5955,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5955,7 +5975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>100</v>
       </c>
@@ -5975,7 +5995,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>100</v>
       </c>
@@ -5996,7 +6016,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>110</v>
       </c>
@@ -6016,7 +6036,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>112</v>
       </c>
@@ -6037,7 +6057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13" t="s">
         <v>128</v>
       </c>
@@ -6057,7 +6077,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13" t="s">
         <v>130</v>
       </c>
@@ -6077,7 +6097,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13" t="s">
         <v>130</v>
       </c>
@@ -6097,7 +6117,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15">
+    <row r="26" spans="1:6" ht="13.8">
       <c r="A26" s="13" t="s">
         <v>133</v>
       </c>
@@ -6117,7 +6137,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15">
+    <row r="27" spans="1:6" ht="13.8">
       <c r="A27" s="13" t="s">
         <v>137</v>
       </c>
@@ -6137,7 +6157,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15">
+    <row r="28" spans="1:6" ht="13.8">
       <c r="A28" s="13" t="s">
         <v>138</v>
       </c>
@@ -6157,7 +6177,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15">
+    <row r="29" spans="1:6" ht="13.8">
       <c r="A29" s="13" t="s">
         <v>141</v>
       </c>
@@ -6177,7 +6197,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="13" t="s">
         <v>149</v>
       </c>
@@ -6281,10 +6301,10 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6304,7 +6324,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6322,7 +6342,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6342,7 +6362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -6490,7 +6510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -6569,7 +6589,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6593,7 +6613,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6752,14 +6772,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6779,7 +6799,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6797,7 +6817,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6817,7 +6837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -6837,7 +6857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -6857,7 +6877,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -6877,7 +6897,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -6897,7 +6917,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -6917,7 +6937,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -6957,7 +6977,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>97</v>
       </c>
@@ -6977,7 +6997,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>144</v>
       </c>
@@ -6997,7 +7017,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>118</v>
       </c>
@@ -7017,7 +7037,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>120</v>
       </c>
@@ -7037,7 +7057,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>146</v>
       </c>
@@ -7057,7 +7077,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>147</v>
       </c>
@@ -7093,7 +7113,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7254,7 +7274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7271,7 +7291,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7288,7 +7308,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDEDC9D-BE59-47AB-B9BC-B0309B7E200C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3676EBB2-A8A9-45FB-AC93-115289668FCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2892" windowWidth="17208" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="156">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3276,11 +3276,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>intent로 정보 넘기기 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>19.12.06</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>intent로 정보 넘기기 추가</t>
+    <t xml:space="preserve">DB 함수 호출 파트 정리 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS 1.3 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3437,7 +3449,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3460,6 +3472,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3469,7 +3505,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3535,6 +3571,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -4916,10 +4954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
@@ -5607,7 +5645,7 @@
     </row>
     <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B37" s="2">
         <v>0.13194444444444445</v>
@@ -5622,16 +5660,48 @@
         <v>50</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="3"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.6">
+      <c r="A38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>90</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.6">
+      <c r="A39" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="38">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="9">
+        <v>10</v>
+      </c>
+      <c r="E39" s="9">
+        <v>170</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5648,8 +5718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3676EBB2-A8A9-45FB-AC93-115289668FCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDEDC9D-BE59-47AB-B9BC-B0309B7E200C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2892" windowWidth="17208" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3276,23 +3276,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>19.12.06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>intent로 정보 넘기기 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.12.05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.12.06</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DB 함수 호출 파트 정리 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRS 1.3 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3449,7 +3437,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3472,30 +3460,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3505,7 +3469,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3571,8 +3535,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -4954,10 +4916,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
@@ -5645,7 +5607,7 @@
     </row>
     <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" s="2">
         <v>0.13194444444444445</v>
@@ -5660,48 +5622,16 @@
         <v>50</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.6">
-      <c r="A38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8">
-        <v>90</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.6">
-      <c r="A39" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" s="38">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="37">
-        <v>0.75</v>
-      </c>
-      <c r="D39" s="9">
-        <v>10</v>
-      </c>
-      <c r="E39" s="9">
-        <v>170</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>155</v>
-      </c>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5718,8 +5648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDEDC9D-BE59-47AB-B9BC-B0309B7E200C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A5FDFE-5FA3-4C72-B7BD-B1FEE612C830}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2892" windowWidth="17208" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="4575" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="155">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3281,6 +3281,14 @@
   </si>
   <si>
     <t>intent로 정보 넘기기 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스 취합</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3925,13 +3933,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -3962,7 +3970,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4263,7 +4271,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4280,7 +4288,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4297,7 +4305,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4314,7 +4322,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4331,7 +4339,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4348,7 +4356,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4365,7 +4373,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4385,11 +4393,11 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4409,7 +4417,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4427,7 +4435,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4447,7 +4455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4467,7 +4475,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4487,7 +4495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4507,7 +4515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4527,7 +4535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4587,7 +4595,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4607,7 +4615,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4627,7 +4635,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4647,7 +4655,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4667,7 +4675,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -4687,7 +4695,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -4707,7 +4715,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -4727,7 +4735,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -4747,7 +4755,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -4918,15 +4926,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4946,7 +4954,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4964,7 +4972,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4984,7 +4992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -5004,7 +5012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -5024,7 +5032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -5044,7 +5052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -5064,7 +5072,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -5085,7 +5093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -5125,7 +5133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -5145,7 +5153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -5165,7 +5173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -5185,7 +5193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -5245,7 +5253,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -5285,7 +5293,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -5305,7 +5313,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -5325,7 +5333,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -5345,7 +5353,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -5365,7 +5373,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -5385,7 +5393,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5405,7 +5413,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5425,7 +5433,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5445,7 +5453,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="13.5">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -5465,7 +5473,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5545,7 +5553,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="13.5">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -5565,7 +5573,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="13.5">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -5585,7 +5593,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.2">
+    <row r="36" spans="1:6" ht="27">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -5605,7 +5613,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6">
+    <row r="37" spans="1:6" ht="13.5">
       <c r="A37" s="3" t="s">
         <v>151</v>
       </c>
@@ -5626,11 +5634,6 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
       <c r="F38" s="3"/>
     </row>
   </sheetData>
@@ -5648,15 +5651,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5676,7 +5679,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5694,7 +5697,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -5734,7 +5737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -5814,7 +5817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -5855,7 +5858,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -5875,7 +5878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -5895,7 +5898,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
@@ -5915,7 +5918,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
@@ -5935,7 +5938,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="13" t="s">
         <v>100</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="13" t="s">
         <v>100</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
         <v>110</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="13" t="s">
         <v>112</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="13" t="s">
         <v>128</v>
       </c>
@@ -6077,7 +6080,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="13" t="s">
         <v>130</v>
       </c>
@@ -6097,7 +6100,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="13" t="s">
         <v>130</v>
       </c>
@@ -6117,7 +6120,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="13" t="s">
         <v>133</v>
       </c>
@@ -6137,7 +6140,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.8">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="13" t="s">
         <v>137</v>
       </c>
@@ -6157,7 +6160,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="13" t="s">
         <v>138</v>
       </c>
@@ -6177,7 +6180,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="13" t="s">
         <v>141</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="13" t="s">
         <v>149</v>
       </c>
@@ -6217,13 +6220,25 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="3"/>
+    <row r="31" spans="1:6" ht="15">
+      <c r="A31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="D31" s="8">
+        <v>260</v>
+      </c>
+      <c r="E31" s="8">
+        <v>330</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="13"/>
@@ -6301,10 +6316,10 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6324,7 +6339,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6342,7 +6357,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6362,7 +6377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -6510,7 +6525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -6589,7 +6604,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6613,7 +6628,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6776,10 +6791,10 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6799,7 +6814,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6817,7 +6832,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6837,7 +6852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -6857,7 +6872,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -6877,7 +6892,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -6897,7 +6912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
@@ -6917,7 +6932,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -6937,7 +6952,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -6977,7 +6992,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
         <v>97</v>
       </c>
@@ -6997,7 +7012,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6">
       <c r="A14" s="13" t="s">
         <v>144</v>
       </c>
@@ -7017,7 +7032,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>118</v>
       </c>
@@ -7037,7 +7052,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
         <v>120</v>
       </c>
@@ -7057,7 +7072,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>146</v>
       </c>
@@ -7077,7 +7092,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
         <v>147</v>
       </c>
@@ -7113,7 +7128,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7274,7 +7289,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7291,7 +7306,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7308,7 +7323,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A5FDFE-5FA3-4C72-B7BD-B1FEE612C830}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086ED793-457F-4824-BAB3-D30826B80CDC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4710" yWindow="4575" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="156">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3284,11 +3284,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>소스 취합</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>19.12.07</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>소스 취합</t>
+    <r>
+      <t xml:space="preserve">DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디버그</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5652,7 +5667,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -6222,7 +6237,7 @@
     </row>
     <row r="31" spans="1:6" ht="15">
       <c r="A31" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B31" s="2">
         <v>0.70833333333333337</v>
@@ -6237,16 +6252,28 @@
         <v>330</v>
       </c>
       <c r="F31" s="35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15">
+      <c r="A32" s="13" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="2">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>60</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="13"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086ED793-457F-4824-BAB3-D30826B80CDC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C5B83B-0705-4EE6-920D-FFE934D44797}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4575" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="161">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3304,6 +3304,26 @@
       </rPr>
       <t>디버그</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 함수 호출 파트 정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS 1.3 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 9일</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3460,7 +3480,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3483,6 +3503,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3492,7 +3549,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3558,6 +3615,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3948,13 +4016,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -3985,7 +4053,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4286,7 +4354,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4303,7 +4371,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4320,7 +4388,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4337,7 +4405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4354,7 +4422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4371,7 +4439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4388,7 +4456,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4405,14 +4473,14 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4432,7 +4500,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4450,7 +4518,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4470,7 +4538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4490,7 +4558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4510,7 +4578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4530,7 +4598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4550,7 +4618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4610,7 +4678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4630,7 +4698,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4650,7 +4718,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4670,7 +4738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4690,7 +4758,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -4710,7 +4778,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -4730,7 +4798,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -4750,7 +4818,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -4770,7 +4838,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -4939,17 +5007,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4969,7 +5037,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4987,7 +5055,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5007,7 +5075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -5027,7 +5095,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -5047,7 +5115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -5067,7 +5135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -5087,7 +5155,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -5108,7 +5176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -5148,7 +5216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -5168,7 +5236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -5188,7 +5256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -5208,7 +5276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -5268,7 +5336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -5288,7 +5356,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -5308,7 +5376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -5328,7 +5396,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25">
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -5348,7 +5416,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -5368,7 +5436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -5388,7 +5456,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -5408,7 +5476,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5428,7 +5496,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5448,7 +5516,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5468,7 +5536,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -5488,7 +5556,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5516,13 +5584,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C31" s="2">
-        <v>0.16666666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="D31" s="8">
         <v>0</v>
       </c>
       <c r="E31" s="16">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>119</v>
@@ -5533,7 +5601,7 @@
         <v>120</v>
       </c>
       <c r="B32" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="C32" s="2">
         <v>0.29166666666666669</v>
@@ -5542,7 +5610,7 @@
         <v>60</v>
       </c>
       <c r="E32" s="16">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>119</v>
@@ -5568,7 +5636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -5588,7 +5656,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -5608,7 +5676,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27">
+    <row r="36" spans="1:6" ht="31.2">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -5628,9 +5696,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5">
+    <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B37" s="2">
         <v>0.13194444444444445</v>
@@ -5648,8 +5716,45 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="F38" s="3"/>
+    <row r="38" spans="1:6" ht="15.6">
+      <c r="A38" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D38" s="39">
+        <v>0</v>
+      </c>
+      <c r="E38" s="39">
+        <v>120</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="41">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="42">
+        <v>0</v>
+      </c>
+      <c r="E39" s="42">
+        <v>300</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5664,17 +5769,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5694,7 +5799,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5712,7 +5817,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5732,7 +5837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -5752,7 +5857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -5772,7 +5877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5792,150 +5897,151 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" ref="E9" si="0">HOUR(C9)*60+MINUTE(C9)-(HOUR(B9)*60+MINUTE(B9)+D9)</f>
+        <v>30</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8">
+      <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>0.69097222222222221</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>0.73263888888888884</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
-      <c r="A10" s="13" t="s">
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.94444444444444453</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>1.0347222222222221</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
         <v>130</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:6" ht="13.8">
+      <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
         <v>25</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="13" t="s">
+    <row r="13" spans="1:6" ht="13.8">
+      <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>0.68055555555555547</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <v>60</v>
       </c>
-      <c r="E12" s="16">
-        <f>HOUR(C12)*60+MINUTE(C12)-(HOUR(B12)*60+MINUTE(B12)+D12)</f>
+      <c r="E13" s="16">
+        <f>HOUR(C13)*60+MINUTE(C13)-(HOUR(B13)*60+MINUTE(B13)+D13)</f>
         <v>160</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="13" t="s">
+    <row r="14" spans="1:6" ht="13.8">
+      <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>0.375</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <v>30</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="13" t="s">
+    <row r="15" spans="1:6" ht="13.8">
+      <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
         <v>40</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>60</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2">
         <v>0.58333333333333337</v>
@@ -5949,100 +6055,99 @@
       <c r="E16" s="16">
         <v>60</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15">
+      <c r="F16" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="2">
-        <v>0.625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C17" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="16">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.8">
+      <c r="A19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>30</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.8">
+      <c r="A20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C20" s="2">
         <v>1.0069444444444444</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D20" s="8">
         <v>30</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E20" s="16">
         <v>100</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="13" t="s">
+    <row r="21" spans="1:6" ht="13.8">
+      <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B21" s="2">
         <v>0.5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C21" s="2">
         <v>0.52777777777777779</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>40</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.96875</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <f>HOUR(C20)*60+MINUTE(C20)-(HOUR(B20)*60+MINUTE(B20)+D20)</f>
-        <v>105</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.90277777777777779</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -6050,246 +6155,271 @@
       <c r="E21" s="16">
         <v>40</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15">
+      <c r="F21" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B22" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C22" s="2">
-        <v>0.97222222222222221</v>
+        <v>0.96875</v>
       </c>
       <c r="D22" s="8">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E22" s="16">
         <f>HOUR(C22)*60+MINUTE(C22)-(HOUR(B22)*60+MINUTE(B22)+D22)</f>
+        <v>105</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.8">
+      <c r="A23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>40</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.8">
+      <c r="A24" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="D24" s="8">
+        <v>45</v>
+      </c>
+      <c r="E24" s="16">
+        <f>HOUR(C24)*60+MINUTE(C24)-(HOUR(B24)*60+MINUTE(B24)+D24)</f>
         <v>155</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="13" t="s">
+    <row r="25" spans="1:6" ht="13.8">
+      <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B25" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C25" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
         <v>30</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F25" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
-      <c r="A24" s="13" t="s">
+    <row r="26" spans="1:6" ht="13.8">
+      <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B26" s="2">
         <v>0.875</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C26" s="2">
         <v>0.88888888888888884</v>
       </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
         <v>20</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F26" s="35" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15">
-      <c r="A25" s="13" t="s">
+    <row r="27" spans="1:6" ht="13.8">
+      <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B27" s="2">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C27" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
         <v>40</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F27" s="35" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15">
-      <c r="A26" s="13" t="s">
+    <row r="28" spans="1:6" ht="13.8">
+      <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B28" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C28" s="2">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D28" s="8">
         <v>40</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E28" s="16">
         <v>50</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F28" s="35" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15">
-      <c r="A27" s="13" t="s">
+    <row r="29" spans="1:6" ht="13.8">
+      <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B29" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C29" s="2">
         <v>0.88888888888888884</v>
       </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
         <v>140</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15">
-      <c r="A28" s="13" t="s">
+    <row r="30" spans="1:6" ht="13.8">
+      <c r="A30" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.0555555555555556</v>
-      </c>
-      <c r="D28" s="8">
-        <v>35</v>
-      </c>
-      <c r="E28" s="16">
-        <v>105</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15">
-      <c r="A29" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D29" s="8">
-        <v>20</v>
-      </c>
-      <c r="E29" s="16">
-        <v>190</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15">
-      <c r="A30" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="B30" s="2">
         <v>0.95833333333333337</v>
       </c>
       <c r="C30" s="2">
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="D30" s="8">
+        <v>35</v>
+      </c>
+      <c r="E30" s="16">
+        <v>105</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.8">
+      <c r="A31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D31" s="8">
+        <v>20</v>
+      </c>
+      <c r="E31" s="16">
+        <v>190</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6">
+      <c r="A32" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C32" s="2">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
         <v>220</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15">
-      <c r="A31" s="3" t="s">
+    <row r="33" spans="1:6" ht="13.8">
+      <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B33" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C33" s="2">
         <v>0.11805555555555557</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D33" s="8">
         <v>260</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E33" s="8">
         <v>330</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F33" s="35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15">
-      <c r="A32" s="13" t="s">
+    <row r="34" spans="1:6" ht="13.8">
+      <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B34" s="2">
         <v>0.1388888888888889</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C34" s="2">
         <v>0.18055555555555555</v>
       </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="16">
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
         <v>60</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="13"/>
@@ -6304,24 +6434,40 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6340,13 +6486,13 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6366,7 +6512,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6384,7 +6530,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6404,7 +6550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -6418,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="16">
-        <f>김지환!E12</f>
+        <f>김지환!E13</f>
         <v>160</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -6552,7 +6698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -6615,13 +6761,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
+    <row r="16" spans="1:7" ht="15.6">
+      <c r="A16" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>60</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="13"/>
@@ -6631,7 +6789,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6655,7 +6813,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6812,16 +6970,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6841,7 +6999,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6859,7 +7017,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6879,7 +7037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -6899,7 +7057,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -6919,7 +7077,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -6939,221 +7097,246 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" ref="E9" si="0">HOUR(C9)*60+MINUTE(C9)-(HOUR(B9)*60+MINUTE(B9)+D9)</f>
+        <v>30</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8">
+      <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>0.69097222222222221</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>0.73263888888888884</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13" t="s">
+    <row r="11" spans="1:6" ht="13.8">
+      <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
         <v>120</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5">
         <v>0.67361111111111116</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <v>0.76388888888888884</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
         <v>130</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F12" s="25" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
-        <v>60</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>60</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.8">
+      <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B15" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C15" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
         <v>120</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
+    <row r="16" spans="1:6" ht="13.8">
+      <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B16" s="2">
         <v>0.75</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C16" s="2">
         <v>0.84722222222222221</v>
       </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
         <v>140</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>170</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>50</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2">
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C17" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="16">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>50</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.8">
+      <c r="A19" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>120</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.8">
+      <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B20" s="2">
         <v>0.78472222222222221</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C20" s="2">
         <v>0.86111111111111116</v>
       </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
         <v>110</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F20" s="18" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="13"/>
@@ -7161,7 +7344,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="13"/>
@@ -7171,13 +7354,13 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="13"/>
@@ -7280,24 +7463,40 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7314,9 +7513,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7333,7 +7534,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7350,7 +7551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C5B83B-0705-4EE6-920D-FFE934D44797}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D44258-F37C-427B-97B1-C1F448A6423E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="164">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3324,6 +3324,58 @@
   </si>
   <si>
     <t>11월 9일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 추천 안드로이드 스튜디오 코드 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 코드 파악 및 추천 코드 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구성에 따라 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천 코드 통합</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3549,7 +3601,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3626,6 +3678,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -4016,16 +4069,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -4052,8 +4105,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4354,7 +4407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4371,7 +4424,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4388,7 +4441,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4405,7 +4458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4422,7 +4475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4439,7 +4492,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4456,7 +4509,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4472,18 +4525,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4500,7 +4553,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4518,7 +4571,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4538,7 +4591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4558,7 +4611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4578,7 +4631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4598,7 +4651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4618,7 +4671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4678,7 +4731,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4698,7 +4751,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4718,7 +4771,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4738,7 +4791,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4758,7 +4811,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -4778,7 +4831,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -4798,7 +4851,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -4818,7 +4871,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -4838,7 +4891,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -4858,53 +4911,125 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="3"/>
+    <row r="22" spans="1:6" ht="13">
+      <c r="A22" s="13">
+        <v>43796</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>240</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13">
+      <c r="A23" s="13">
+        <v>43797</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>120</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13">
+      <c r="A24" s="13">
+        <v>43800</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>240</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13">
+      <c r="A25" s="13">
+        <v>43801</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D25" s="8">
+        <v>120</v>
+      </c>
+      <c r="E25" s="16">
+        <v>360</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16">
+      <c r="A26" s="13">
+        <v>43804</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>240</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16">
+      <c r="A27" s="13">
+        <v>43805</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>180</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="13"/>
@@ -5013,14 +5138,14 @@
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5037,7 +5162,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5055,7 +5180,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5075,7 +5200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -5095,7 +5220,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -5115,7 +5240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -5135,7 +5260,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -5155,7 +5280,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -5176,7 +5301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -5216,7 +5341,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -5236,7 +5361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -5256,7 +5381,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -5276,7 +5401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -5336,7 +5461,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -5356,7 +5481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -5376,7 +5501,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -5396,7 +5521,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="28.5">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -5416,7 +5541,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -5436,7 +5561,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -5456,7 +5581,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -5476,7 +5601,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5496,7 +5621,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5516,7 +5641,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5536,7 +5661,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="16">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -5556,7 +5681,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5636,7 +5761,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="16">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -5656,7 +5781,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="16">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -5676,7 +5801,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.2">
+    <row r="36" spans="1:6" ht="32">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -5696,7 +5821,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6">
+    <row r="37" spans="1:6" ht="16">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -5716,7 +5841,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6">
+    <row r="38" spans="1:6" ht="16">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -5775,14 +5900,14 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5799,7 +5924,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5817,7 +5942,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5837,7 +5962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -5857,7 +5982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -5877,7 +6002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5897,7 +6022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -5918,7 +6043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -5938,7 +6063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -5958,7 +6083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="13">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -5978,7 +6103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -5999,7 +6124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="13">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6019,7 +6144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="13">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -6039,7 +6164,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -6059,7 +6184,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6" ht="13">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -6079,7 +6204,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -6099,7 +6224,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -6119,7 +6244,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -6139,7 +6264,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -6159,7 +6284,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="13">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -6180,7 +6305,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6" ht="13">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -6200,7 +6325,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6" ht="13">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -6221,7 +6346,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6" ht="13">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -6241,7 +6366,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8">
+    <row r="26" spans="1:6" ht="13">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -6261,7 +6386,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.8">
+    <row r="27" spans="1:6" ht="13">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -6281,7 +6406,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8">
+    <row r="28" spans="1:6" ht="13">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -6301,7 +6426,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8">
+    <row r="29" spans="1:6" ht="13">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -6321,7 +6446,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8">
+    <row r="30" spans="1:6" ht="13">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -6341,7 +6466,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8">
+    <row r="31" spans="1:6" ht="13">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -6361,7 +6486,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="32" spans="1:6" ht="16">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -6381,7 +6506,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.8">
+    <row r="33" spans="1:6" ht="13">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -6401,7 +6526,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8">
+    <row r="34" spans="1:6" ht="13">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -6489,13 +6614,13 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6512,7 +6637,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6530,7 +6655,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6550,7 +6675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -6698,7 +6823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -6761,7 +6886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="43" t="s">
         <v>160</v>
       </c>
@@ -6789,7 +6914,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6813,7 +6938,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6972,17 +7097,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="50.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6999,7 +7124,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7017,7 +7142,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7037,7 +7162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -7057,7 +7182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -7077,7 +7202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -7097,7 +7222,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -7118,7 +7243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -7138,7 +7263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="13">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -7158,7 +7283,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -7198,7 +7323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -7218,7 +7343,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="13">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -7238,7 +7363,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="13">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -7258,7 +7383,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6" ht="13">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -7278,7 +7403,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -7298,7 +7423,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -7318,7 +7443,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -7354,7 +7479,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6" ht="13">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -7517,7 +7642,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7534,7 +7659,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7551,7 +7676,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D44258-F37C-427B-97B1-C1F448A6423E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B56B4DA-EB12-4D26-ACBF-189077128D34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3132" yWindow="3384" windowWidth="17208" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="166">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3376,6 +3376,15 @@
       </rPr>
       <t>추천 코드 통합</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 일정 연동 파트 구현 및 해당 파트 알림창 
+설정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3601,7 +3610,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3679,6 +3688,15 @@
     </xf>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -4069,16 +4087,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.9" customHeight="1">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4090,7 +4108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.9" customHeight="1">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -4105,8 +4123,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4407,7 +4425,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4424,7 +4442,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4441,7 +4459,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4458,7 +4476,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4475,7 +4493,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4492,7 +4510,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4509,7 +4527,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4525,18 +4543,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4553,7 +4571,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4571,7 +4589,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4591,7 +4609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4611,7 +4629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4631,7 +4649,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4651,7 +4669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4671,7 +4689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4731,7 +4749,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4751,7 +4769,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4771,7 +4789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4791,7 +4809,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4811,7 +4829,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -4831,7 +4849,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -4851,7 +4869,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -4871,7 +4889,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -4891,7 +4909,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -4911,7 +4929,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -4931,7 +4949,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -4951,7 +4969,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -4971,7 +4989,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -4991,7 +5009,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -5011,7 +5029,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -5132,20 +5150,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5162,7 +5180,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5180,7 +5198,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5200,7 +5218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -5220,7 +5238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -5240,7 +5258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -5260,7 +5278,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -5280,7 +5298,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -5301,7 +5319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -5341,7 +5359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -5361,7 +5379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -5381,7 +5399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -5401,7 +5419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -5461,7 +5479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -5481,7 +5499,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -5501,7 +5519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -5521,7 +5539,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5">
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -5541,7 +5559,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -5561,7 +5579,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -5581,7 +5599,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -5601,7 +5619,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5621,7 +5639,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5641,7 +5659,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5661,7 +5679,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -5681,7 +5699,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5761,7 +5779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -5781,7 +5799,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -5801,7 +5819,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="32">
+    <row r="36" spans="1:6" ht="31.2">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -5821,7 +5839,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16">
+    <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -5841,7 +5859,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16">
+    <row r="38" spans="1:6" ht="15.6">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -5879,6 +5897,26 @@
       </c>
       <c r="F39" s="37" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="31.2">
+      <c r="A40" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="47">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C40" s="47">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D40" s="39">
+        <v>0</v>
+      </c>
+      <c r="E40" s="39">
+        <v>80</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5896,18 +5934,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5924,7 +5962,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5942,7 +5980,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5962,7 +6000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -5982,7 +6020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -6002,7 +6040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -6022,7 +6060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -6043,7 +6081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -6063,7 +6101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -6083,7 +6121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -6103,7 +6141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -6124,7 +6162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6144,7 +6182,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -6164,7 +6202,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -6184,7 +6222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -6204,7 +6242,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -6224,7 +6262,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -6244,7 +6282,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -6264,7 +6302,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -6284,7 +6322,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -6305,7 +6343,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -6325,7 +6363,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -6346,7 +6384,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -6366,7 +6404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13">
+    <row r="26" spans="1:6" ht="13.8">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -6386,7 +6424,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13">
+    <row r="27" spans="1:6" ht="13.8">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -6406,7 +6444,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13">
+    <row r="28" spans="1:6" ht="13.8">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -6426,7 +6464,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13">
+    <row r="29" spans="1:6" ht="13.8">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -6446,7 +6484,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13">
+    <row r="30" spans="1:6" ht="13.8">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -6466,7 +6504,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13">
+    <row r="31" spans="1:6" ht="13.8">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -6486,7 +6524,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -6506,7 +6544,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13">
+    <row r="33" spans="1:6" ht="13.8">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -6526,7 +6564,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13">
+    <row r="34" spans="1:6" ht="13.8">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -6614,13 +6652,13 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6637,7 +6675,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6655,7 +6693,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6675,7 +6713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -6823,7 +6861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -6886,7 +6924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="43" t="s">
         <v>160</v>
       </c>
@@ -6914,7 +6952,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6938,7 +6976,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7101,13 +7139,13 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7124,7 +7162,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7142,7 +7180,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7162,7 +7200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -7182,7 +7220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -7202,7 +7240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -7222,7 +7260,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -7243,7 +7281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -7263,7 +7301,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -7283,7 +7321,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6" ht="15.6">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -7323,7 +7361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -7343,7 +7381,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -7363,7 +7401,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -7383,7 +7421,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -7403,7 +7441,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -7423,7 +7461,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -7443,7 +7481,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -7479,7 +7517,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="13">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -7642,7 +7680,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7659,7 +7697,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7676,7 +7714,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B56B4DA-EB12-4D26-ACBF-189077128D34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52600544-8EA0-4FD4-ABC6-99DE45F3B2B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3132" yWindow="3384" windowWidth="17208" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="2340" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="168">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3385,6 +3385,47 @@
   <si>
     <t>외부 일정 연동 파트 구현 및 해당 파트 알림창 
 설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">취합 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tese</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4087,13 +4128,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -4124,7 +4165,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4425,7 +4466,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4442,7 +4483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4459,7 +4500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4476,7 +4517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4493,7 +4534,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4510,7 +4551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4527,7 +4568,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4547,11 +4588,11 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4571,7 +4612,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4589,7 +4630,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4609,7 +4650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4629,7 +4670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4649,7 +4690,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4669,7 +4710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4689,7 +4730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4749,7 +4790,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4769,7 +4810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4789,7 +4830,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4809,7 +4850,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4829,7 +4870,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -4849,7 +4890,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -4869,7 +4910,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -4889,7 +4930,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -4909,7 +4950,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -4929,7 +4970,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -4949,7 +4990,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -4969,7 +5010,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -4989,7 +5030,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -5009,7 +5050,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -5029,7 +5070,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -5152,15 +5193,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5180,7 +5221,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5198,7 +5239,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5218,7 +5259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -5238,7 +5279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -5258,7 +5299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -5278,7 +5319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -5298,7 +5339,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -5319,7 +5360,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -5359,7 +5400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -5379,7 +5420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -5399,7 +5440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -5419,7 +5460,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -5479,7 +5520,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -5499,7 +5540,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -5519,7 +5560,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -5539,7 +5580,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -5559,7 +5600,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -5579,7 +5620,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -5599,7 +5640,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -5619,7 +5660,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5639,7 +5680,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5659,7 +5700,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5679,7 +5720,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="13.5">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -5699,7 +5740,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5779,7 +5820,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="13.5">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -5799,7 +5840,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="13.5">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -5819,7 +5860,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.2">
+    <row r="36" spans="1:6" ht="27">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -5839,7 +5880,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6">
+    <row r="37" spans="1:6" ht="13.5">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -5859,7 +5900,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6">
+    <row r="38" spans="1:6" ht="13.5">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -5899,7 +5940,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.2">
+    <row r="40" spans="1:6" ht="27">
       <c r="A40" s="46" t="s">
         <v>164</v>
       </c>
@@ -5934,15 +5975,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5962,7 +6003,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5980,7 +6021,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6000,7 +6041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -6020,7 +6061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -6040,7 +6081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -6060,7 +6101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -6081,7 +6122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -6101,7 +6142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -6121,7 +6162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -6141,7 +6182,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -6162,7 +6203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6182,7 +6223,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -6202,7 +6243,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -6222,7 +6263,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -6242,7 +6283,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -6262,7 +6303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -6282,7 +6323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -6302,7 +6343,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -6322,7 +6363,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -6343,7 +6384,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -6363,7 +6404,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -6384,7 +6425,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -6404,7 +6445,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -6424,7 +6465,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.8">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -6444,7 +6485,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -6464,7 +6505,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -6484,7 +6525,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -6504,7 +6545,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8">
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -6524,7 +6565,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -6544,7 +6585,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.8">
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -6564,7 +6605,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8">
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -6584,13 +6625,25 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="3"/>
+    <row r="35" spans="1:6" ht="15">
+      <c r="A35" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>240</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="13"/>
@@ -6652,10 +6705,10 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6675,7 +6728,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6693,7 +6746,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6713,7 +6766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -6861,7 +6914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -6924,7 +6977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="43" t="s">
         <v>160</v>
       </c>
@@ -6952,7 +7005,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6976,7 +7029,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7139,10 +7192,10 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7162,7 +7215,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7180,7 +7233,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7200,7 +7253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -7220,7 +7273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -7240,7 +7293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -7260,7 +7313,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -7281,7 +7334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -7301,7 +7354,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -7321,7 +7374,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6">
+    <row r="12" spans="1:6" ht="13.5">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -7361,7 +7414,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -7381,7 +7434,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -7401,7 +7454,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -7421,7 +7474,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -7441,7 +7494,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -7461,7 +7514,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -7481,7 +7534,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -7517,7 +7570,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -7680,7 +7733,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7697,7 +7750,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7714,7 +7767,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52600544-8EA0-4FD4-ABC6-99DE45F3B2B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F8C27-E73A-4C71-9180-9463B0E2E0C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="2340" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="172">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3427,6 +3427,240 @@
       <t>tese</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안정화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Case Test Result </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4128,13 +4362,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -4165,7 +4399,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4466,7 +4700,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4483,7 +4717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4500,7 +4734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4517,7 +4751,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4534,7 +4768,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4551,7 +4785,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4568,7 +4802,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4588,11 +4822,11 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4612,7 +4846,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4630,7 +4864,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4650,7 +4884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4670,7 +4904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4690,7 +4924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4710,7 +4944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4730,7 +4964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -4790,7 +5024,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -4810,7 +5044,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -4830,7 +5064,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -4850,7 +5084,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -4870,7 +5104,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -4890,7 +5124,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -4910,7 +5144,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -4930,7 +5164,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -4950,7 +5184,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -4970,7 +5204,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -4990,7 +5224,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -5010,7 +5244,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -5030,7 +5264,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -5050,7 +5284,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -5070,7 +5304,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -5197,11 +5431,11 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5221,7 +5455,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5239,7 +5473,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5259,7 +5493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -5279,7 +5513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -5299,7 +5533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -5319,7 +5553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -5339,7 +5573,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -5360,7 +5594,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -5400,7 +5634,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -5420,7 +5654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -5440,7 +5674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -5460,7 +5694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -5520,7 +5754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -5540,7 +5774,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -5560,7 +5794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -5580,7 +5814,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25">
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -5600,7 +5834,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -5620,7 +5854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -5640,7 +5874,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -5660,7 +5894,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5680,7 +5914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5700,7 +5934,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5720,7 +5954,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -5740,7 +5974,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5820,7 +6054,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -5840,7 +6074,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -5860,7 +6094,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27">
+    <row r="36" spans="1:6" ht="31.2">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -5880,7 +6114,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5">
+    <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -5900,7 +6134,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5">
+    <row r="38" spans="1:6" ht="15.6">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -5940,7 +6174,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="27">
+    <row r="40" spans="1:6" ht="31.2">
       <c r="A40" s="46" t="s">
         <v>164</v>
       </c>
@@ -5975,15 +6209,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6003,7 +6237,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6021,7 +6255,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6041,7 +6275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -6061,7 +6295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -6081,7 +6315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -6101,7 +6335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -6122,7 +6356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -6142,7 +6376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -6162,7 +6396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -6182,7 +6416,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -6203,7 +6437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6223,7 +6457,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -6243,7 +6477,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -6263,7 +6497,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -6283,7 +6517,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -6303,7 +6537,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -6323,7 +6557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -6343,7 +6577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -6363,7 +6597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -6384,7 +6618,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -6404,7 +6638,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -6425,7 +6659,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -6445,7 +6679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15">
+    <row r="26" spans="1:6" ht="13.8">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -6465,7 +6699,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15">
+    <row r="27" spans="1:6" ht="13.8">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -6485,7 +6719,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15">
+    <row r="28" spans="1:6" ht="13.8">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -6505,7 +6739,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15">
+    <row r="29" spans="1:6" ht="13.8">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -6525,7 +6759,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15">
+    <row r="30" spans="1:6" ht="13.8">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -6545,7 +6779,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15">
+    <row r="31" spans="1:6" ht="13.8">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -6565,7 +6799,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -6585,7 +6819,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15">
+    <row r="33" spans="1:6" ht="13.8">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -6605,7 +6839,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15">
+    <row r="34" spans="1:6" ht="13.8">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -6625,7 +6859,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15">
+    <row r="35" spans="1:6" ht="13.8">
       <c r="A35" s="13" t="s">
         <v>166</v>
       </c>
@@ -6705,10 +6939,10 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6728,7 +6962,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6746,7 +6980,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6766,7 +7000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -6914,7 +7148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -6977,7 +7211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.5">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="43" t="s">
         <v>160</v>
       </c>
@@ -7005,7 +7239,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7029,7 +7263,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7188,14 +7422,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7215,7 +7449,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7233,7 +7467,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7253,7 +7487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -7273,7 +7507,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -7293,7 +7527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -7313,7 +7547,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -7334,7 +7568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -7354,7 +7588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -7374,7 +7608,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5">
+    <row r="12" spans="1:6" ht="15.6">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -7414,7 +7648,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -7434,7 +7668,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -7454,7 +7688,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -7474,7 +7708,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -7494,7 +7728,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -7514,7 +7748,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -7534,7 +7768,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -7555,22 +7789,46 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>240</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="A22" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>180</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -7733,7 +7991,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7750,7 +8008,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7767,7 +8025,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F8C27-E73A-4C71-9180-9463B0E2E0C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCEFA3B-6662-49F6-AD45-44A464AD33D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="3390" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="174">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3661,6 +3661,39 @@
       </rPr>
       <t>수정</t>
     </r>
+  </si>
+  <si>
+    <t>19.12.07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소스 취합 및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디버깅</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4362,13 +4395,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -4399,7 +4432,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4700,7 +4733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4717,7 +4750,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4734,7 +4767,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4751,7 +4784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4768,7 +4801,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4785,7 +4818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4802,7 +4835,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4822,11 +4855,11 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4846,7 +4879,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4864,7 +4897,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4884,7 +4917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4904,7 +4937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4924,7 +4957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4944,7 +4977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4964,7 +4997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -5024,7 +5057,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -5044,7 +5077,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -5064,7 +5097,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -5084,7 +5117,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -5104,7 +5137,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -5124,7 +5157,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -5144,7 +5177,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -5164,7 +5197,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -5184,7 +5217,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -5204,7 +5237,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -5224,7 +5257,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -5244,7 +5277,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -5264,7 +5297,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -5284,7 +5317,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -5304,7 +5337,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -5431,11 +5464,11 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5455,7 +5488,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5473,7 +5506,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5493,7 +5526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -5513,7 +5546,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -5533,7 +5566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -5553,7 +5586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -5573,7 +5606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -5594,7 +5627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -5634,7 +5667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -5654,7 +5687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -5674,7 +5707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -5694,7 +5727,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -5754,7 +5787,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -5774,7 +5807,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -5794,7 +5827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -5814,7 +5847,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -5834,7 +5867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -5854,7 +5887,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -5874,7 +5907,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -5894,7 +5927,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5914,7 +5947,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5934,7 +5967,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5954,7 +5987,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="13.5">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -5974,7 +6007,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -6054,7 +6087,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="13.5">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -6074,7 +6107,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="13.5">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -6094,7 +6127,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.2">
+    <row r="36" spans="1:6" ht="27">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -6114,7 +6147,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6">
+    <row r="37" spans="1:6" ht="13.5">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -6134,7 +6167,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6">
+    <row r="38" spans="1:6" ht="13.5">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -6174,7 +6207,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.2">
+    <row r="40" spans="1:6" ht="27">
       <c r="A40" s="46" t="s">
         <v>164</v>
       </c>
@@ -6209,15 +6242,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F43" sqref="F42:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6237,7 +6270,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6255,7 +6288,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6275,7 +6308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -6295,7 +6328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -6315,7 +6348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -6335,7 +6368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -6356,7 +6389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -6376,7 +6409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -6396,7 +6429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -6416,7 +6449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -6437,7 +6470,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6457,7 +6490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -6477,7 +6510,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -6497,7 +6530,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -6517,7 +6550,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -6537,7 +6570,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -6557,7 +6590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -6577,7 +6610,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -6597,7 +6630,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -6618,7 +6651,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -6638,7 +6671,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -6659,7 +6692,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -6679,7 +6712,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -6699,7 +6732,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.8">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -6719,7 +6752,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -6739,7 +6772,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -6759,7 +6792,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -6779,7 +6812,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8">
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -6799,7 +6832,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -6819,7 +6852,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.8">
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -6839,7 +6872,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8">
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -6859,7 +6892,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.8">
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="13" t="s">
         <v>166</v>
       </c>
@@ -6879,13 +6912,25 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="3"/>
+    <row r="36" spans="1:6" ht="15">
+      <c r="A36" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>300</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="13"/>
@@ -6939,10 +6984,10 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6962,7 +7007,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6980,7 +7025,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7000,7 +7045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -7148,7 +7193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -7211,7 +7256,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="43" t="s">
         <v>160</v>
       </c>
@@ -7239,7 +7284,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7263,7 +7308,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7422,14 +7467,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7449,7 +7494,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7467,7 +7512,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7487,7 +7532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -7507,7 +7552,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -7527,7 +7572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -7547,7 +7592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -7568,7 +7613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -7588,7 +7633,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -7608,7 +7653,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6">
+    <row r="12" spans="1:6" ht="13.5">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -7648,7 +7693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -7668,7 +7713,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -7688,7 +7733,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -7708,7 +7753,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -7728,7 +7773,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -7748,7 +7793,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -7768,7 +7813,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -7828,7 +7873,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -7991,7 +8036,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8008,7 +8053,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8025,7 +8070,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCEFA3B-6662-49F6-AD45-44A464AD33D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571CF4F5-D1C5-4E71-9805-A1BB45D4D2D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="3390" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="178">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3693,6 +3693,22 @@
       </rPr>
       <t>디버깅</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SAD 수정, SRS 1.3 수정 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 잡기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3849,7 +3865,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3909,6 +3925,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3918,7 +3989,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -4004,6 +4075,23 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4395,13 +4483,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -4432,7 +4520,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4733,7 +4821,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4750,7 +4838,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4767,7 +4855,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4784,7 +4872,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4801,7 +4889,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4818,7 +4906,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4835,7 +4923,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4855,11 +4943,11 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4879,7 +4967,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4897,7 +4985,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4917,7 +5005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -4937,7 +5025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -4957,7 +5045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -4977,7 +5065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -4997,7 +5085,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -5057,7 +5145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -5077,7 +5165,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -5097,7 +5185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -5117,7 +5205,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -5137,7 +5225,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -5157,7 +5245,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -5177,7 +5265,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -5197,7 +5285,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -5217,7 +5305,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -5237,7 +5325,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -5257,7 +5345,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -5277,7 +5365,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -5297,7 +5385,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -5317,7 +5405,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -5337,7 +5425,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -5458,17 +5546,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5488,7 +5576,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5506,7 +5594,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5526,7 +5614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -5546,7 +5634,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -5566,7 +5654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -5586,7 +5674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -5606,7 +5694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -5627,7 +5715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -5667,7 +5755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -5687,7 +5775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -5707,7 +5795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -5727,7 +5815,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -5787,7 +5875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -5807,7 +5895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -5827,7 +5915,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -5847,7 +5935,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25">
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -5867,7 +5955,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -5887,7 +5975,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -5907,7 +5995,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -5927,7 +6015,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5947,7 +6035,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -5967,7 +6055,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -5987,7 +6075,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -6007,7 +6095,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -6087,7 +6175,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -6107,7 +6195,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -6127,7 +6215,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27">
+    <row r="36" spans="1:6" ht="31.2">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -6147,7 +6235,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5">
+    <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -6167,7 +6255,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5">
+    <row r="38" spans="1:6" ht="15.6">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -6207,7 +6295,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="27">
+    <row r="40" spans="1:6" ht="31.2">
       <c r="A40" s="46" t="s">
         <v>164</v>
       </c>
@@ -6226,6 +6314,56 @@
       <c r="F40" s="45" t="s">
         <v>165</v>
       </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.6">
+      <c r="A41" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="C41" s="53">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D41" s="54">
+        <v>0</v>
+      </c>
+      <c r="E41" s="55">
+        <v>110</v>
+      </c>
+      <c r="F41" s="56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.6">
+      <c r="A42" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C42" s="57">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D42" s="39">
+        <v>0</v>
+      </c>
+      <c r="E42" s="58">
+        <v>150</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6242,15 +6380,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F43" sqref="F42:F43"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6270,7 +6408,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6288,7 +6426,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6308,7 +6446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -6328,7 +6466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -6348,7 +6486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -6368,7 +6506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -6389,7 +6527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -6409,7 +6547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -6429,7 +6567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -6449,7 +6587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -6470,7 +6608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6490,7 +6628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -6510,7 +6648,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -6530,7 +6668,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -6550,7 +6688,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -6570,7 +6708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -6590,7 +6728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -6610,7 +6748,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -6630,7 +6768,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -6651,7 +6789,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -6671,7 +6809,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -6692,7 +6830,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -6712,7 +6850,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15">
+    <row r="26" spans="1:6" ht="13.8">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -6732,7 +6870,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15">
+    <row r="27" spans="1:6" ht="13.8">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -6752,7 +6890,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15">
+    <row r="28" spans="1:6" ht="13.8">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -6772,7 +6910,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15">
+    <row r="29" spans="1:6" ht="13.8">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -6792,7 +6930,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15">
+    <row r="30" spans="1:6" ht="13.8">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -6812,7 +6950,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15">
+    <row r="31" spans="1:6" ht="13.8">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -6832,7 +6970,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -6852,7 +6990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15">
+    <row r="33" spans="1:6" ht="13.8">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -6872,7 +7010,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15">
+    <row r="34" spans="1:6" ht="13.8">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -6892,7 +7030,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15">
+    <row r="35" spans="1:6" ht="13.8">
       <c r="A35" s="13" t="s">
         <v>166</v>
       </c>
@@ -6912,7 +7050,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15">
+    <row r="36" spans="1:6" ht="13.8">
       <c r="A36" s="13" t="s">
         <v>172</v>
       </c>
@@ -6984,10 +7122,10 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7007,7 +7145,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7025,7 +7163,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7045,7 +7183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -7193,7 +7331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -7256,7 +7394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.5">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="43" t="s">
         <v>160</v>
       </c>
@@ -7284,7 +7422,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7308,7 +7446,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7471,10 +7609,10 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7494,7 +7632,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7512,7 +7650,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7532,7 +7670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -7552,7 +7690,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -7572,7 +7710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -7592,7 +7730,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -7613,7 +7751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -7633,7 +7771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -7653,7 +7791,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5">
+    <row r="12" spans="1:6" ht="15.6">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -7693,7 +7831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -7713,7 +7851,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -7733,7 +7871,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -7753,7 +7891,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -7773,7 +7911,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -7793,7 +7931,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -7813,7 +7951,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -7833,7 +7971,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -7853,7 +7991,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>170</v>
       </c>
@@ -7873,7 +8011,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8036,7 +8174,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8053,7 +8191,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8070,7 +8208,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571CF4F5-D1C5-4E71-9805-A1BB45D4D2D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C6061C-D37A-4137-9E9A-3FF911B4A24B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,9 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId17"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1480,7 +1483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="210">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3323,10 +3326,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>11월 9일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>장소 추천 안드로이드 스튜디오 코드 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3709,6 +3708,394 @@
   </si>
   <si>
     <t>오류 잡기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맡게 된 SAD 부분 정독하고 해야할 일 계획세우기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부분에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔티티가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가져야할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메소드 구상 및 클래스 분류</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class 나누기 및 SAD 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial data 작성 및 팀공유</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLite DB 예제 코드 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Review</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>project에 db 붙이기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 코드 오류 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 코드 오류 수정 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 실행 오류 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coding Guideline 작성 및 팀공유</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD 발표를 위한 작업, coding guideline 지속 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD 발표를 위한 PPT작업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD 발표 준비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>놓쳤던 클래스 및 테이블 디자인 부분 공부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD 평가결과 정독 및 개선점 계획</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인일정등록파트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>붙인 코드 정독 및 클래스 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인일정등록파트 GUI 붙여서 수정 및 안정성 보완</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인일정등록파트 부분수정 완료 코드 팀공유</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인일정등록파트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 외부일정연동파트 팀공유</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다큐멘테이션 작업 마무리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 11일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 14일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 18일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 29일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 21일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 27일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 30일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 31일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 13일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 14일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 16일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 20일</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3989,7 +4376,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -4093,6 +4480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -4178,6 +4566,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="총합"/>
+      <sheetName val="김동욱"/>
+      <sheetName val="김지현"/>
+      <sheetName val="김지환"/>
+      <sheetName val="김형준"/>
+      <sheetName val="함형우"/>
+      <sheetName val="Sheet7"/>
+      <sheetName val="Sheet8"/>
+      <sheetName val="Sheet9"/>
+      <sheetName val="Sheet10"/>
+      <sheetName val="Sheet11"/>
+      <sheetName val="Sheet12"/>
+      <sheetName val="Sheet13"/>
+      <sheetName val="Sheet14"/>
+      <sheetName val="Sheet15"/>
+      <sheetName val="Sheet16"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="13">
+          <cell r="E13">
+            <v>160</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5382,7 +5819,7 @@
         <v>240</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.8">
@@ -5402,7 +5839,7 @@
         <v>360</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6">
@@ -5422,7 +5859,7 @@
         <v>240</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6">
@@ -5442,7 +5879,7 @@
         <v>180</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5548,7 +5985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -6297,7 +6734,7 @@
     </row>
     <row r="40" spans="1:6" ht="31.2">
       <c r="A40" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" s="47">
         <v>0.70833333333333337</v>
@@ -6312,12 +6749,12 @@
         <v>80</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.6">
       <c r="A41" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" s="52">
         <v>0.875</v>
@@ -6332,12 +6769,12 @@
         <v>110</v>
       </c>
       <c r="F41" s="56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.6">
       <c r="A42" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" s="2">
         <v>6.25E-2</v>
@@ -6352,12 +6789,12 @@
         <v>150</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="49"/>
@@ -7032,7 +7469,7 @@
     </row>
     <row r="35" spans="1:6" ht="13.8">
       <c r="A35" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35" s="2">
         <v>0.75</v>
@@ -7047,12 +7484,12 @@
         <v>240</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.8">
       <c r="A36" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" s="2">
         <v>0.95833333333333337</v>
@@ -7067,7 +7504,7 @@
         <v>300</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7116,10 +7553,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
@@ -7197,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="16">
-        <f>김지환!E13</f>
+        <f>[1]김지환!E13</f>
         <v>160</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -7303,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="16">
-        <f t="shared" ref="E11:E15" si="1">HOUR(C11)*60+MINUTE(C11)-(HOUR(B11)*60+MINUTE(B11)+D11)</f>
+        <f t="shared" ref="E11:E40" si="1">HOUR(C11)*60+MINUTE(C11)-(HOUR(B11)*60+MINUTE(B11)+D11)</f>
         <v>90</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -7396,199 +7833,528 @@
     </row>
     <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="43" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D17" s="8">
+        <v>75</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8">
+      <c r="A18" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6">
+      <c r="A19" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.8">
+      <c r="A20" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.8">
+      <c r="A21" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6">
+      <c r="A22" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6">
+      <c r="A23" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6">
+      <c r="A24" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6">
+      <c r="A25" s="43">
+        <v>43770</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6">
+      <c r="A26" s="13">
+        <v>43771</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6">
+      <c r="A27" s="13">
+        <v>43771</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C27" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6">
+      <c r="A28" s="43">
+        <v>43772</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="13">
+        <v>43774</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6">
+      <c r="A30" s="43">
+        <v>43778</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C30" s="2">
         <v>0.625</v>
       </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F30" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.8">
-      <c r="A18" s="13"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="13.8">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="3"/>
+    <row r="31" spans="1:6" ht="13.8">
+      <c r="A31" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.8">
+      <c r="A32" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.6">
+      <c r="A33" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="8">
+        <v>120</v>
+      </c>
+      <c r="E33" s="16">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.8">
+      <c r="A34" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13.8">
+      <c r="A35" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.6">
+      <c r="A36" s="13">
+        <v>43800</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="3"/>
+      <c r="A37" s="13">
+        <v>43804</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="3"/>
+      <c r="A38" s="13">
+        <v>43805</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.6">
+      <c r="A39" s="13">
+        <v>43806</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="13">
+        <v>43807</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7973,7 +8739,7 @@
     </row>
     <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="2">
         <v>0.79166666666666663</v>
@@ -7988,12 +8754,12 @@
         <v>240</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="2">
         <v>0.625</v>
@@ -8008,7 +8774,7 @@
         <v>180</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.8">

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C6061C-D37A-4137-9E9A-3FF911B4A24B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A13A5E1-BCF4-4D63-82D2-630A68D1028B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15510" yWindow="2340" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="212">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -4096,6 +4096,14 @@
       </rPr>
       <t xml:space="preserve"> 20일</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스 취합 및 test</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4920,13 +4928,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -4957,7 +4965,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5258,7 +5266,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5275,7 +5283,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5292,7 +5300,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5309,7 +5317,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5326,7 +5334,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5343,7 +5351,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5360,7 +5368,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5380,11 +5388,11 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5404,7 +5412,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5422,7 +5430,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5442,7 +5450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5462,7 +5470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -5482,7 +5490,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -5502,7 +5510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -5522,7 +5530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -5582,7 +5590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -5602,7 +5610,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -5622,7 +5630,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -5642,7 +5650,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -5662,7 +5670,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -5682,7 +5690,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -5702,7 +5710,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -5722,7 +5730,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -5742,7 +5750,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -5762,7 +5770,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -5782,7 +5790,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -5802,7 +5810,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -5822,7 +5830,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -5842,7 +5850,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -5862,7 +5870,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -5989,11 +5997,11 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6013,7 +6021,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6031,7 +6039,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6051,7 +6059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -6071,7 +6079,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -6091,7 +6099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -6111,7 +6119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -6131,7 +6139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -6152,7 +6160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -6192,7 +6200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -6212,7 +6220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -6232,7 +6240,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -6252,7 +6260,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -6312,7 +6320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -6332,7 +6340,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -6352,7 +6360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6372,7 +6380,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -6392,7 +6400,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -6412,7 +6420,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -6432,7 +6440,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -6452,7 +6460,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -6472,7 +6480,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -6492,7 +6500,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -6512,7 +6520,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="13.5">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -6532,7 +6540,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -6612,7 +6620,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="13.5">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -6632,7 +6640,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="13.5">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -6652,7 +6660,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.2">
+    <row r="36" spans="1:6" ht="27">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -6672,7 +6680,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6">
+    <row r="37" spans="1:6" ht="13.5">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -6692,7 +6700,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6">
+    <row r="38" spans="1:6" ht="13.5">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -6732,7 +6740,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.2">
+    <row r="40" spans="1:6" ht="27">
       <c r="A40" s="46" t="s">
         <v>163</v>
       </c>
@@ -6752,7 +6760,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6">
+    <row r="41" spans="1:6" ht="13.5">
       <c r="A41" s="48" t="s">
         <v>173</v>
       </c>
@@ -6772,7 +6780,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.6">
+    <row r="42" spans="1:6" ht="13.5">
       <c r="A42" s="50" t="s">
         <v>175</v>
       </c>
@@ -6817,15 +6825,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6845,7 +6853,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6863,7 +6871,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6883,7 +6891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -6903,7 +6911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -6923,7 +6931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -6943,7 +6951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -6964,7 +6972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -6984,7 +6992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7004,7 +7012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -7024,7 +7032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -7045,7 +7053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -7065,7 +7073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -7085,7 +7093,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -7105,7 +7113,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -7125,7 +7133,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -7145,7 +7153,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -7165,7 +7173,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -7185,7 +7193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -7205,7 +7213,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -7226,7 +7234,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -7246,7 +7254,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -7267,7 +7275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -7287,7 +7295,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -7307,7 +7315,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.8">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -7327,7 +7335,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -7347,7 +7355,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -7367,7 +7375,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -7387,7 +7395,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8">
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -7407,7 +7415,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -7427,7 +7435,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.8">
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -7447,7 +7455,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8">
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -7467,7 +7475,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.8">
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="13" t="s">
         <v>165</v>
       </c>
@@ -7487,7 +7495,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.8">
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="13" t="s">
         <v>171</v>
       </c>
@@ -7507,13 +7515,25 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="13"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="3"/>
+    <row r="37" spans="1:6" ht="13.5">
+      <c r="A37" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <v>240</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="13"/>
@@ -7555,14 +7575,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7582,7 +7602,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7600,7 +7620,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7620,7 +7640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -7768,7 +7788,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -7831,7 +7851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="43" t="s">
         <v>198</v>
       </c>
@@ -7852,7 +7872,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="13" t="s">
         <v>199</v>
       </c>
@@ -7873,7 +7893,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
         <v>200</v>
       </c>
@@ -7894,7 +7914,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="43" t="s">
         <v>202</v>
       </c>
@@ -7915,7 +7935,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>203</v>
       </c>
@@ -7936,7 +7956,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
         <v>201</v>
       </c>
@@ -7957,7 +7977,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6">
+    <row r="22" spans="1:6" ht="13.5">
       <c r="A22" s="43" t="s">
         <v>204</v>
       </c>
@@ -7978,7 +7998,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="43" t="s">
         <v>205</v>
       </c>
@@ -7999,7 +8019,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="43" t="s">
         <v>205</v>
       </c>
@@ -8020,7 +8040,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="43">
         <v>43770</v>
       </c>
@@ -8041,7 +8061,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13">
         <v>43771</v>
       </c>
@@ -8062,7 +8082,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13">
         <v>43771</v>
       </c>
@@ -8083,7 +8103,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="43">
         <v>43772</v>
       </c>
@@ -8125,7 +8145,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="43">
         <v>43778</v>
       </c>
@@ -8146,7 +8166,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8">
+    <row r="31" spans="1:6">
       <c r="A31" s="13" t="s">
         <v>206</v>
       </c>
@@ -8167,7 +8187,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.8">
+    <row r="32" spans="1:6">
       <c r="A32" s="13" t="s">
         <v>206</v>
       </c>
@@ -8188,7 +8208,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6">
+    <row r="33" spans="1:6" ht="13.5">
       <c r="A33" s="13" t="s">
         <v>207</v>
       </c>
@@ -8209,7 +8229,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8">
+    <row r="34" spans="1:6">
       <c r="A34" s="13" t="s">
         <v>208</v>
       </c>
@@ -8230,7 +8250,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.8">
+    <row r="35" spans="1:6">
       <c r="A35" s="13" t="s">
         <v>209</v>
       </c>
@@ -8251,7 +8271,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6">
+    <row r="36" spans="1:6" ht="13.5">
       <c r="A36" s="13">
         <v>43800</v>
       </c>
@@ -8314,7 +8334,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.6">
+    <row r="39" spans="1:6" ht="13.5">
       <c r="A39" s="13">
         <v>43806</v>
       </c>
@@ -8375,10 +8395,10 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8398,7 +8418,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8416,7 +8436,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -8436,7 +8456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -8456,7 +8476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -8476,7 +8496,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -8496,7 +8516,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -8517,7 +8537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -8537,7 +8557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -8557,7 +8577,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6">
+    <row r="12" spans="1:6" ht="13.5">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -8597,7 +8617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -8617,7 +8637,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -8637,7 +8657,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -8657,7 +8677,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -8677,7 +8697,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -8697,7 +8717,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -8717,7 +8737,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -8737,7 +8757,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
         <v>167</v>
       </c>
@@ -8757,7 +8777,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6">
       <c r="A22" s="13" t="s">
         <v>169</v>
       </c>
@@ -8777,7 +8797,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8940,7 +8960,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8957,7 +8977,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8974,7 +8994,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A13A5E1-BCF4-4D63-82D2-630A68D1028B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59BF1F1-0F7B-4934-A471-DCF7F164E7B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15510" yWindow="2340" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="215">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -4104,6 +4104,19 @@
   </si>
   <si>
     <t>소스 취합 및 test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 부분 GUI 설정 변경, SRS 수정, 자동판별로직 
+코드 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 부분 GUI 설정 변경, SRS 수정, 자동판별로직코드 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4384,7 +4397,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -4472,9 +4485,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4489,6 +4500,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -4928,13 +4951,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -4965,7 +4988,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5266,7 +5289,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5283,7 +5306,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5300,7 +5323,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5317,7 +5340,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5334,7 +5357,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5351,7 +5374,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5368,7 +5391,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5388,11 +5411,11 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5412,7 +5435,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5430,7 +5453,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5450,7 +5473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5470,7 +5493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -5490,7 +5513,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -5510,7 +5533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -5530,7 +5553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -5590,7 +5613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -5610,7 +5633,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -5630,7 +5653,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -5650,7 +5673,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -5670,7 +5693,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -5690,7 +5713,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -5710,7 +5733,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -5730,7 +5753,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -5750,7 +5773,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -5770,7 +5793,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -5790,7 +5813,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -5810,7 +5833,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -5830,7 +5853,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -5850,7 +5873,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -5870,7 +5893,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -5993,15 +6016,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6021,7 +6044,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6039,7 +6062,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6059,7 +6082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -6079,7 +6102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -6099,7 +6122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -6119,7 +6142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -6139,7 +6162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -6160,7 +6183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -6200,7 +6223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -6220,7 +6243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -6240,7 +6263,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -6260,7 +6283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -6320,7 +6343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -6340,7 +6363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -6360,7 +6383,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6380,7 +6403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25">
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -6400,7 +6423,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -6420,7 +6443,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -6440,7 +6463,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -6460,7 +6483,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -6480,7 +6503,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -6500,7 +6523,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -6520,7 +6543,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -6540,7 +6563,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -6620,7 +6643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -6640,7 +6663,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -6660,7 +6683,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27">
+    <row r="36" spans="1:6" ht="31.2">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -6680,7 +6703,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5">
+    <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -6700,7 +6723,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5">
+    <row r="38" spans="1:6" ht="15.6">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -6740,7 +6763,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="27">
+    <row r="40" spans="1:6" ht="31.2">
       <c r="A40" s="46" t="s">
         <v>163</v>
       </c>
@@ -6760,55 +6783,65 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5">
+    <row r="41" spans="1:6" ht="15.6">
       <c r="A41" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B41" s="50">
         <v>0.875</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="51">
         <v>0.95138888888888884</v>
       </c>
-      <c r="D41" s="54">
-        <v>0</v>
-      </c>
-      <c r="E41" s="55">
+      <c r="D41" s="52">
+        <v>0</v>
+      </c>
+      <c r="E41" s="53">
         <v>110</v>
       </c>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="54" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5">
-      <c r="A42" s="50" t="s">
+    <row r="42" spans="1:6" ht="15.6">
+      <c r="A42" s="49" t="s">
         <v>175</v>
       </c>
       <c r="B42" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="55">
         <v>0.16666666666666666</v>
       </c>
       <c r="D42" s="39">
         <v>0</v>
       </c>
-      <c r="E42" s="58">
+      <c r="E42" s="56">
         <v>150</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="51"/>
+    <row r="43" spans="1:6" ht="31.2">
+      <c r="A43" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="60">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C43" s="61">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="D43" s="42">
+        <v>60</v>
+      </c>
+      <c r="E43" s="59">
+        <v>140</v>
+      </c>
+      <c r="F43" s="58" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6825,15 +6858,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6853,7 +6886,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6871,7 +6904,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6891,7 +6924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -6911,7 +6944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -6931,7 +6964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -6951,7 +6984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -6972,7 +7005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -6992,7 +7025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7012,7 +7045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -7032,7 +7065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -7053,7 +7086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -7073,7 +7106,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -7093,7 +7126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -7113,7 +7146,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -7133,7 +7166,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -7153,7 +7186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -7173,7 +7206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -7193,7 +7226,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -7213,7 +7246,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -7234,7 +7267,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -7254,7 +7287,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -7275,7 +7308,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -7295,7 +7328,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15">
+    <row r="26" spans="1:6" ht="13.8">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -7315,7 +7348,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15">
+    <row r="27" spans="1:6" ht="13.8">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -7335,7 +7368,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15">
+    <row r="28" spans="1:6" ht="13.8">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -7355,7 +7388,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15">
+    <row r="29" spans="1:6" ht="13.8">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -7375,7 +7408,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15">
+    <row r="30" spans="1:6" ht="13.8">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -7395,7 +7428,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15">
+    <row r="31" spans="1:6" ht="13.8">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -7415,7 +7448,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -7435,7 +7468,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15">
+    <row r="33" spans="1:6" ht="13.8">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -7455,7 +7488,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15">
+    <row r="34" spans="1:6" ht="13.8">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -7475,7 +7508,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15">
+    <row r="35" spans="1:6" ht="13.8">
       <c r="A35" s="13" t="s">
         <v>165</v>
       </c>
@@ -7495,7 +7528,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15">
+    <row r="36" spans="1:6" ht="13.8">
       <c r="A36" s="13" t="s">
         <v>171</v>
       </c>
@@ -7515,7 +7548,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5">
+    <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="13" t="s">
         <v>210</v>
       </c>
@@ -7579,10 +7612,10 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7602,7 +7635,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7620,7 +7653,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7640,7 +7673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -7788,7 +7821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -7851,7 +7884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.5">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="43" t="s">
         <v>198</v>
       </c>
@@ -7872,7 +7905,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="13" t="s">
         <v>199</v>
       </c>
@@ -7893,7 +7926,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>200</v>
       </c>
@@ -7914,7 +7947,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="43" t="s">
         <v>202</v>
       </c>
@@ -7935,7 +7968,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>203</v>
       </c>
@@ -7956,7 +7989,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>201</v>
       </c>
@@ -7977,7 +8010,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5">
+    <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="43" t="s">
         <v>204</v>
       </c>
@@ -7998,7 +8031,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="43" t="s">
         <v>205</v>
       </c>
@@ -8019,7 +8052,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="43" t="s">
         <v>205</v>
       </c>
@@ -8040,7 +8073,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="43">
         <v>43770</v>
       </c>
@@ -8061,7 +8094,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13">
         <v>43771</v>
       </c>
@@ -8082,7 +8115,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13">
         <v>43771</v>
       </c>
@@ -8103,7 +8136,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="43">
         <v>43772</v>
       </c>
@@ -8145,7 +8178,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="43">
         <v>43778</v>
       </c>
@@ -8166,7 +8199,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="13.8">
       <c r="A31" s="13" t="s">
         <v>206</v>
       </c>
@@ -8187,7 +8220,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="13.8">
       <c r="A32" s="13" t="s">
         <v>206</v>
       </c>
@@ -8208,7 +8241,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5">
+    <row r="33" spans="1:6" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>207</v>
       </c>
@@ -8225,11 +8258,11 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="57" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="13.8">
       <c r="A34" s="13" t="s">
         <v>208</v>
       </c>
@@ -8250,7 +8283,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="13.8">
       <c r="A35" s="13" t="s">
         <v>209</v>
       </c>
@@ -8271,7 +8304,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5">
+    <row r="36" spans="1:6" ht="15.6">
       <c r="A36" s="13">
         <v>43800</v>
       </c>
@@ -8334,7 +8367,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5">
+    <row r="39" spans="1:6" ht="15.6">
       <c r="A39" s="13">
         <v>43806</v>
       </c>
@@ -8395,10 +8428,10 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8418,7 +8451,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8436,7 +8469,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -8456,7 +8489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -8476,7 +8509,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -8496,7 +8529,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -8516,7 +8549,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -8537,7 +8570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -8557,7 +8590,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -8577,7 +8610,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5">
+    <row r="12" spans="1:6" ht="15.6">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -8617,7 +8650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -8637,7 +8670,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -8657,7 +8690,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -8677,7 +8710,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -8697,7 +8730,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -8717,7 +8750,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -8737,7 +8770,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -8757,7 +8790,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>167</v>
       </c>
@@ -8777,7 +8810,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>169</v>
       </c>
@@ -8797,7 +8830,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8960,7 +8993,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8977,7 +9010,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8994,7 +9027,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59BF1F1-0F7B-4934-A471-DCF7F164E7B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0DC38B-5068-47DF-95EC-6487AD843577}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="2505" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="216">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -4111,12 +4111,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>추천 부분 GUI 설정 변경, SRS 수정, 자동판별로직 
-코드 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>추천 부분 GUI 설정 변경, SRS 수정, 자동판별로직코드 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">소스 취합 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>test</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4951,13 +4970,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -4988,7 +5007,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5289,7 +5308,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5306,7 +5325,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5323,7 +5342,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5340,7 +5359,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5357,7 +5376,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5374,7 +5393,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5391,7 +5410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5411,11 +5430,11 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5435,7 +5454,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5453,7 +5472,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5473,7 +5492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5493,7 +5512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -5513,7 +5532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -5533,7 +5552,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -5553,7 +5572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -5613,7 +5632,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -5633,7 +5652,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -5653,7 +5672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -5673,7 +5692,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -5693,7 +5712,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -5713,7 +5732,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -5733,7 +5752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -5753,7 +5772,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -5773,7 +5792,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -5793,7 +5812,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -5813,7 +5832,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -5833,7 +5852,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -5853,7 +5872,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -5873,7 +5892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -5893,7 +5912,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -6016,15 +6035,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6044,7 +6063,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6062,7 +6081,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6082,7 +6101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -6102,7 +6121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -6122,7 +6141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -6142,7 +6161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -6162,7 +6181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -6183,7 +6202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -6223,7 +6242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -6243,7 +6262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -6263,7 +6282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -6283,7 +6302,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -6343,7 +6362,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -6363,7 +6382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -6383,7 +6402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6403,7 +6422,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -6423,7 +6442,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -6443,7 +6462,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -6463,7 +6482,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -6483,7 +6502,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -6503,7 +6522,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -6523,7 +6542,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -6543,7 +6562,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="13.5">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -6563,7 +6582,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -6643,7 +6662,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="13.5">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -6663,7 +6682,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="13.5">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -6683,7 +6702,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.2">
+    <row r="36" spans="1:6" ht="27">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -6703,7 +6722,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6">
+    <row r="37" spans="1:6" ht="13.5">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -6723,7 +6742,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6">
+    <row r="38" spans="1:6" ht="13.5">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -6763,7 +6782,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.2">
+    <row r="40" spans="1:6" ht="27">
       <c r="A40" s="46" t="s">
         <v>163</v>
       </c>
@@ -6783,7 +6802,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6">
+    <row r="41" spans="1:6" ht="13.5">
       <c r="A41" s="48" t="s">
         <v>173</v>
       </c>
@@ -6803,7 +6822,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.6">
+    <row r="42" spans="1:6" ht="13.5">
       <c r="A42" s="49" t="s">
         <v>175</v>
       </c>
@@ -6823,7 +6842,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="31.2">
+    <row r="43" spans="1:6" ht="27">
       <c r="A43" s="59" t="s">
         <v>212</v>
       </c>
@@ -6840,7 +6859,7 @@
         <v>140</v>
       </c>
       <c r="F43" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -6858,15 +6877,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6886,7 +6905,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6904,7 +6923,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6924,7 +6943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -6944,7 +6963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -6964,7 +6983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -6984,7 +7003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -7005,7 +7024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -7025,7 +7044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7045,7 +7064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -7065,7 +7084,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -7086,7 +7105,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -7106,7 +7125,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -7126,7 +7145,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -7146,7 +7165,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -7166,7 +7185,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -7186,7 +7205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -7206,7 +7225,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -7226,7 +7245,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -7246,7 +7265,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -7267,7 +7286,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -7287,7 +7306,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -7308,7 +7327,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -7328,7 +7347,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -7348,7 +7367,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.8">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -7368,7 +7387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -7388,7 +7407,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -7408,7 +7427,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -7428,7 +7447,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8">
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -7448,7 +7467,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -7468,7 +7487,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.8">
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -7488,7 +7507,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8">
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -7508,7 +7527,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.8">
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="13" t="s">
         <v>165</v>
       </c>
@@ -7528,7 +7547,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.8">
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="13" t="s">
         <v>171</v>
       </c>
@@ -7548,7 +7567,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6">
+    <row r="37" spans="1:6" ht="13.5">
       <c r="A37" s="13" t="s">
         <v>210</v>
       </c>
@@ -7568,13 +7587,25 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="13"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="3"/>
+    <row r="38" spans="1:6" ht="15">
+      <c r="A38" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>280</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3"/>
@@ -7612,10 +7643,10 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7635,7 +7666,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7653,7 +7684,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7673,7 +7704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -7821,7 +7852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -7884,7 +7915,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="43" t="s">
         <v>198</v>
       </c>
@@ -7905,7 +7936,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="13" t="s">
         <v>199</v>
       </c>
@@ -7926,7 +7957,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
         <v>200</v>
       </c>
@@ -7947,7 +7978,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="43" t="s">
         <v>202</v>
       </c>
@@ -7968,7 +7999,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>203</v>
       </c>
@@ -7989,7 +8020,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
         <v>201</v>
       </c>
@@ -8010,7 +8041,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6">
+    <row r="22" spans="1:6" ht="13.5">
       <c r="A22" s="43" t="s">
         <v>204</v>
       </c>
@@ -8031,7 +8062,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="43" t="s">
         <v>205</v>
       </c>
@@ -8052,7 +8083,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="43" t="s">
         <v>205</v>
       </c>
@@ -8073,7 +8104,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="43">
         <v>43770</v>
       </c>
@@ -8094,7 +8125,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13">
         <v>43771</v>
       </c>
@@ -8115,7 +8146,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13">
         <v>43771</v>
       </c>
@@ -8136,7 +8167,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="43">
         <v>43772</v>
       </c>
@@ -8178,7 +8209,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="43">
         <v>43778</v>
       </c>
@@ -8199,7 +8230,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8">
+    <row r="31" spans="1:6">
       <c r="A31" s="13" t="s">
         <v>206</v>
       </c>
@@ -8220,7 +8251,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.8">
+    <row r="32" spans="1:6">
       <c r="A32" s="13" t="s">
         <v>206</v>
       </c>
@@ -8241,7 +8272,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6">
+    <row r="33" spans="1:6" ht="13.5">
       <c r="A33" s="13" t="s">
         <v>207</v>
       </c>
@@ -8262,7 +8293,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8">
+    <row r="34" spans="1:6">
       <c r="A34" s="13" t="s">
         <v>208</v>
       </c>
@@ -8283,7 +8314,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.8">
+    <row r="35" spans="1:6">
       <c r="A35" s="13" t="s">
         <v>209</v>
       </c>
@@ -8304,7 +8335,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6">
+    <row r="36" spans="1:6" ht="13.5">
       <c r="A36" s="13">
         <v>43800</v>
       </c>
@@ -8367,7 +8398,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.6">
+    <row r="39" spans="1:6" ht="13.5">
       <c r="A39" s="13">
         <v>43806</v>
       </c>
@@ -8428,10 +8459,10 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8451,7 +8482,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8469,7 +8500,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -8489,7 +8520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -8509,7 +8540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -8529,7 +8560,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -8549,7 +8580,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -8570,7 +8601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -8590,7 +8621,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -8610,7 +8641,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6">
+    <row r="12" spans="1:6" ht="13.5">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -8650,7 +8681,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -8670,7 +8701,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -8690,7 +8721,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -8710,7 +8741,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -8730,7 +8761,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -8750,7 +8781,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -8770,7 +8801,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -8790,7 +8821,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
         <v>167</v>
       </c>
@@ -8810,7 +8841,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6">
       <c r="A22" s="13" t="s">
         <v>169</v>
       </c>
@@ -8830,7 +8861,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8993,7 +9024,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9010,7 +9041,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9027,7 +9058,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0DC38B-5068-47DF-95EC-6487AD843577}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5E26AC-37A8-498E-A08A-5C9387978323}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="2505" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="2475" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="218">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -4112,6 +4112,30 @@
   </si>
   <si>
     <t>추천 부분 GUI 설정 변경, SRS 수정, 자동판별로직코드 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">소스 취합 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>test</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -6877,8 +6901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -7607,13 +7631,25 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="3"/>
+    <row r="39" spans="1:6" ht="15">
+      <c r="A39" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
+        <v>140</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5E26AC-37A8-498E-A08A-5C9387978323}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D83778-5876-4B96-8F2E-B915FC30A188}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2475" windowWidth="20310" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="220">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -4159,6 +4159,181 @@
         <family val="2"/>
       </rPr>
       <t>test</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">spec 수정, GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구성 및 DB에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수정 </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구성과 DB에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 통합</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4994,16 +5169,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5015,7 +5190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -5030,8 +5205,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5332,7 +5507,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5349,7 +5524,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5366,7 +5541,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5383,7 +5558,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5400,7 +5575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5417,7 +5592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5434,7 +5609,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5450,18 +5625,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5478,7 +5653,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5496,7 +5671,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5516,7 +5691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5536,7 +5711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -5556,7 +5731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -5576,7 +5751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -5596,7 +5771,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -5656,7 +5831,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -5676,7 +5851,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -5696,7 +5871,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -5716,7 +5891,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -5736,7 +5911,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -5756,7 +5931,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -5776,7 +5951,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -5796,7 +5971,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -5816,7 +5991,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -5836,7 +6011,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="13">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -5856,7 +6031,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -5876,7 +6051,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="13">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -5896,7 +6071,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="13">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -5916,7 +6091,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -5936,7 +6111,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -5956,53 +6131,125 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="3"/>
+    <row r="28" spans="1:6" ht="16">
+      <c r="A28" s="13">
+        <v>43806</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <v>60</v>
+      </c>
+      <c r="E28" s="16">
+        <v>300</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16">
+      <c r="A29" s="13">
+        <v>43807</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>240</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16">
+      <c r="A30" s="13">
+        <v>43807</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D30" s="8">
+        <v>60</v>
+      </c>
+      <c r="E30" s="16">
+        <v>240</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16">
+      <c r="A31" s="13">
+        <v>43807</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>360</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16">
+      <c r="A32" s="13">
+        <v>43808</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D32" s="8">
+        <v>30</v>
+      </c>
+      <c r="E32" s="16">
+        <v>150</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16">
+      <c r="A33" s="13">
+        <v>43808</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>120</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="13"/>
@@ -6063,14 +6310,14 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6087,7 +6334,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6105,7 +6352,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6125,7 +6372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -6145,7 +6392,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -6165,7 +6412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -6185,7 +6432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -6205,7 +6452,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -6226,7 +6473,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -6266,7 +6513,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -6286,7 +6533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -6306,7 +6553,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -6326,7 +6573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -6386,7 +6633,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -6406,7 +6653,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -6426,7 +6673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6446,7 +6693,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25">
+    <row r="22" spans="1:6" ht="28.5">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -6466,7 +6713,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -6486,7 +6733,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -6506,7 +6753,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -6526,7 +6773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -6546,7 +6793,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -6566,7 +6813,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -6586,7 +6833,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5">
+    <row r="29" spans="1:6" ht="16">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -6606,7 +6853,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -6686,7 +6933,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5">
+    <row r="34" spans="1:6" ht="16">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -6706,7 +6953,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5">
+    <row r="35" spans="1:6" ht="16">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -6726,7 +6973,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27">
+    <row r="36" spans="1:6" ht="32">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -6746,7 +6993,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5">
+    <row r="37" spans="1:6" ht="16">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -6766,7 +7013,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5">
+    <row r="38" spans="1:6" ht="16">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -6806,7 +7053,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="27">
+    <row r="40" spans="1:6" ht="32">
       <c r="A40" s="46" t="s">
         <v>163</v>
       </c>
@@ -6826,7 +7073,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5">
+    <row r="41" spans="1:6" ht="16">
       <c r="A41" s="48" t="s">
         <v>173</v>
       </c>
@@ -6846,7 +7093,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5">
+    <row r="42" spans="1:6" ht="16">
       <c r="A42" s="49" t="s">
         <v>175</v>
       </c>
@@ -6866,7 +7113,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="27">
+    <row r="43" spans="1:6" ht="32">
       <c r="A43" s="59" t="s">
         <v>212</v>
       </c>
@@ -6901,18 +7148,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6929,7 +7176,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6947,7 +7194,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6967,7 +7214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -6987,7 +7234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -7007,7 +7254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -7027,7 +7274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -7048,7 +7295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -7068,7 +7315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7088,7 +7335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="13">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -7108,7 +7355,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -7129,7 +7376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="13">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -7149,7 +7396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" ht="13">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -7169,7 +7416,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -7189,7 +7436,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="13">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -7209,7 +7456,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -7229,7 +7476,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -7249,7 +7496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -7269,7 +7516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -7289,7 +7536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6" ht="13">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -7310,7 +7557,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -7330,7 +7577,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
+    <row r="24" spans="1:6" ht="13">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -7351,7 +7598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15">
+    <row r="25" spans="1:6" ht="13">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -7371,7 +7618,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15">
+    <row r="26" spans="1:6" ht="13">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -7391,7 +7638,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15">
+    <row r="27" spans="1:6" ht="13">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -7411,7 +7658,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15">
+    <row r="28" spans="1:6" ht="13">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -7431,7 +7678,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15">
+    <row r="29" spans="1:6" ht="13">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -7451,7 +7698,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15">
+    <row r="30" spans="1:6" ht="13">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -7471,7 +7718,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15">
+    <row r="31" spans="1:6" ht="13">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -7491,7 +7738,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15">
+    <row r="32" spans="1:6" ht="16">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -7511,7 +7758,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15">
+    <row r="33" spans="1:6" ht="13">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -7531,7 +7778,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15">
+    <row r="34" spans="1:6" ht="13">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -7551,7 +7798,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15">
+    <row r="35" spans="1:6" ht="13">
       <c r="A35" s="13" t="s">
         <v>165</v>
       </c>
@@ -7571,7 +7818,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15">
+    <row r="36" spans="1:6" ht="13">
       <c r="A36" s="13" t="s">
         <v>171</v>
       </c>
@@ -7591,7 +7838,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5">
+    <row r="37" spans="1:6" ht="16">
       <c r="A37" s="13" t="s">
         <v>210</v>
       </c>
@@ -7611,7 +7858,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15">
+    <row r="38" spans="1:6" ht="13">
       <c r="A38" s="13" t="s">
         <v>214</v>
       </c>
@@ -7631,7 +7878,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15">
+    <row r="39" spans="1:6" ht="13">
       <c r="A39" s="3" t="s">
         <v>216</v>
       </c>
@@ -7679,13 +7926,13 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7702,7 +7949,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7720,7 +7967,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7740,7 +7987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -7888,7 +8135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -7951,7 +8198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.5">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="43" t="s">
         <v>198</v>
       </c>
@@ -7972,7 +8219,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="13" t="s">
         <v>199</v>
       </c>
@@ -7993,7 +8240,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13" t="s">
         <v>200</v>
       </c>
@@ -8014,7 +8261,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="43" t="s">
         <v>202</v>
       </c>
@@ -8035,7 +8282,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13" t="s">
         <v>203</v>
       </c>
@@ -8056,7 +8303,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13" t="s">
         <v>201</v>
       </c>
@@ -8077,7 +8324,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5">
+    <row r="22" spans="1:6" ht="16">
       <c r="A22" s="43" t="s">
         <v>204</v>
       </c>
@@ -8098,7 +8345,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="43" t="s">
         <v>205</v>
       </c>
@@ -8119,7 +8366,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="43" t="s">
         <v>205</v>
       </c>
@@ -8140,7 +8387,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="43">
         <v>43770</v>
       </c>
@@ -8161,7 +8408,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="13">
         <v>43771</v>
       </c>
@@ -8182,7 +8429,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="13">
         <v>43771</v>
       </c>
@@ -8203,7 +8450,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="43">
         <v>43772</v>
       </c>
@@ -8245,7 +8492,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="43">
         <v>43778</v>
       </c>
@@ -8266,7 +8513,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="13">
       <c r="A31" s="13" t="s">
         <v>206</v>
       </c>
@@ -8287,7 +8534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="13">
       <c r="A32" s="13" t="s">
         <v>206</v>
       </c>
@@ -8308,7 +8555,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5">
+    <row r="33" spans="1:6" ht="16">
       <c r="A33" s="13" t="s">
         <v>207</v>
       </c>
@@ -8329,7 +8576,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="13">
       <c r="A34" s="13" t="s">
         <v>208</v>
       </c>
@@ -8350,7 +8597,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="13">
       <c r="A35" s="13" t="s">
         <v>209</v>
       </c>
@@ -8371,7 +8618,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5">
+    <row r="36" spans="1:6" ht="16">
       <c r="A36" s="13">
         <v>43800</v>
       </c>
@@ -8434,7 +8681,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5">
+    <row r="39" spans="1:6" ht="16">
       <c r="A39" s="13">
         <v>43806</v>
       </c>
@@ -8495,13 +8742,13 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="50.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8518,7 +8765,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8536,7 +8783,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -8556,7 +8803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -8576,7 +8823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -8596,7 +8843,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -8616,7 +8863,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -8637,7 +8884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -8657,7 +8904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="13">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -8677,7 +8924,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -8717,7 +8964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -8737,7 +8984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -8757,7 +9004,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="13">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -8777,7 +9024,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="13">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -8797,7 +9044,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -8817,7 +9064,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -8837,7 +9084,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -8857,7 +9104,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13" t="s">
         <v>167</v>
       </c>
@@ -8877,7 +9124,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="13">
       <c r="A22" s="13" t="s">
         <v>169</v>
       </c>
@@ -8897,7 +9144,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9060,7 +9307,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9077,7 +9324,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9094,7 +9341,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D83778-5876-4B96-8F2E-B915FC30A188}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506F2725-CC9F-4FFC-9833-9A0C03ED90D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3444" yWindow="3384" windowWidth="17208" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="222">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -4335,6 +4335,14 @@
       </rPr>
       <t>, 통합</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI, SRS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4615,7 +4623,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -4724,11 +4732,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5169,16 +5183,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.9" customHeight="1">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5190,7 +5204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.9" customHeight="1">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -5205,8 +5219,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5507,7 +5521,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5524,7 +5538,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5541,7 +5555,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5558,7 +5572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5575,7 +5589,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5592,7 +5606,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5609,7 +5623,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5625,18 +5639,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5653,7 +5667,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5671,7 +5685,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5691,7 +5705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5711,7 +5725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -5731,7 +5745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -5751,7 +5765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -5771,7 +5785,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -5831,7 +5845,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -5851,7 +5865,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -5871,7 +5885,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -5891,7 +5905,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -5911,7 +5925,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -5931,7 +5945,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -5951,7 +5965,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -5971,7 +5985,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -5991,7 +6005,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -6011,7 +6025,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -6031,7 +6045,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -6051,7 +6065,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -6071,7 +6085,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -6091,7 +6105,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -6111,7 +6125,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -6131,7 +6145,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="13">
         <v>43806</v>
       </c>
@@ -6151,7 +6165,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="13">
         <v>43807</v>
       </c>
@@ -6171,7 +6185,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="13">
         <v>43807</v>
       </c>
@@ -6191,7 +6205,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16">
+    <row r="31" spans="1:6" ht="15.6">
       <c r="A31" s="13">
         <v>43807</v>
       </c>
@@ -6211,7 +6225,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="13">
         <v>43808</v>
       </c>
@@ -6231,7 +6245,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16">
+    <row r="33" spans="1:6" ht="15.6">
       <c r="A33" s="13">
         <v>43808</v>
       </c>
@@ -6304,20 +6318,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6334,7 +6348,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6352,7 +6366,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6372,7 +6386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -6392,7 +6406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -6412,7 +6426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -6432,7 +6446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -6452,7 +6466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -6473,7 +6487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -6513,7 +6527,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -6533,7 +6547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -6553,7 +6567,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -6573,7 +6587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -6633,7 +6647,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -6653,7 +6667,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -6673,7 +6687,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6693,7 +6707,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5">
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -6713,7 +6727,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -6733,7 +6747,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -6753,7 +6767,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -6773,7 +6787,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -6793,7 +6807,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -6813,7 +6827,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -6833,7 +6847,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -6853,7 +6867,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -6933,7 +6947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -6953,7 +6967,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -6973,7 +6987,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="32">
+    <row r="36" spans="1:6" ht="31.2">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -6993,7 +7007,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16">
+    <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -7013,7 +7027,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16">
+    <row r="38" spans="1:6" ht="15.6">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -7047,13 +7061,13 @@
         <v>0</v>
       </c>
       <c r="E39" s="42">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="F39" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="32">
+    <row r="40" spans="1:6" ht="31.2">
       <c r="A40" s="46" t="s">
         <v>163</v>
       </c>
@@ -7073,7 +7087,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16">
+    <row r="41" spans="1:6" ht="15.6">
       <c r="A41" s="48" t="s">
         <v>173</v>
       </c>
@@ -7093,7 +7107,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16">
+    <row r="42" spans="1:6" ht="15.6">
       <c r="A42" s="49" t="s">
         <v>175</v>
       </c>
@@ -7113,24 +7127,64 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="32">
-      <c r="A43" s="59" t="s">
+    <row r="43" spans="1:6" ht="31.2">
+      <c r="A43" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="60">
+      <c r="B43" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C43" s="61">
-        <v>0.15972222222222224</v>
+      <c r="C43" s="63">
+        <v>0.18055555555555555</v>
       </c>
       <c r="D43" s="42">
         <v>60</v>
       </c>
       <c r="E43" s="59">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="F43" s="58" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="47">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C44" s="47">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D44" s="39">
+        <v>0</v>
+      </c>
+      <c r="E44" s="39">
+        <v>90</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="C45" s="47">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D45" s="39">
+        <v>0</v>
+      </c>
+      <c r="E45" s="39">
+        <v>120</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7152,14 +7206,14 @@
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7176,7 +7230,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7194,7 +7248,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7214,7 +7268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -7234,7 +7288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -7254,7 +7308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -7274,7 +7328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -7295,7 +7349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -7315,7 +7369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7335,7 +7389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -7355,7 +7409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -7376,7 +7430,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -7396,7 +7450,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -7416,7 +7470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -7436,7 +7490,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -7456,7 +7510,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -7476,7 +7530,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -7496,7 +7550,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -7516,7 +7570,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -7536,7 +7590,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -7557,7 +7611,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -7577,7 +7631,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -7598,7 +7652,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -7618,7 +7672,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13">
+    <row r="26" spans="1:6" ht="13.8">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -7638,7 +7692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13">
+    <row r="27" spans="1:6" ht="13.8">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -7658,7 +7712,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13">
+    <row r="28" spans="1:6" ht="13.8">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -7678,7 +7732,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13">
+    <row r="29" spans="1:6" ht="13.8">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -7698,7 +7752,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13">
+    <row r="30" spans="1:6" ht="13.8">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -7718,7 +7772,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13">
+    <row r="31" spans="1:6" ht="13.8">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -7738,7 +7792,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -7758,7 +7812,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13">
+    <row r="33" spans="1:6" ht="13.8">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -7778,7 +7832,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13">
+    <row r="34" spans="1:6" ht="13.8">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -7798,7 +7852,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13">
+    <row r="35" spans="1:6" ht="13.8">
       <c r="A35" s="13" t="s">
         <v>165</v>
       </c>
@@ -7818,7 +7872,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13">
+    <row r="36" spans="1:6" ht="13.8">
       <c r="A36" s="13" t="s">
         <v>171</v>
       </c>
@@ -7838,7 +7892,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16">
+    <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="13" t="s">
         <v>210</v>
       </c>
@@ -7858,7 +7912,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13">
+    <row r="38" spans="1:6" ht="13.8">
       <c r="A38" s="13" t="s">
         <v>214</v>
       </c>
@@ -7878,7 +7932,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13">
+    <row r="39" spans="1:6" ht="13.8">
       <c r="A39" s="3" t="s">
         <v>216</v>
       </c>
@@ -7926,13 +7980,13 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7949,7 +8003,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7967,7 +8021,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7987,7 +8041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -8135,7 +8189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -8198,7 +8252,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="43" t="s">
         <v>198</v>
       </c>
@@ -8219,7 +8273,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="13" t="s">
         <v>199</v>
       </c>
@@ -8240,7 +8294,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>200</v>
       </c>
@@ -8261,7 +8315,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="43" t="s">
         <v>202</v>
       </c>
@@ -8282,7 +8336,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>203</v>
       </c>
@@ -8303,7 +8357,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>201</v>
       </c>
@@ -8324,7 +8378,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16">
+    <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="43" t="s">
         <v>204</v>
       </c>
@@ -8345,7 +8399,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="43" t="s">
         <v>205</v>
       </c>
@@ -8366,7 +8420,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="43" t="s">
         <v>205</v>
       </c>
@@ -8387,7 +8441,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="43">
         <v>43770</v>
       </c>
@@ -8408,7 +8462,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13">
         <v>43771</v>
       </c>
@@ -8429,7 +8483,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13">
         <v>43771</v>
       </c>
@@ -8450,7 +8504,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="43">
         <v>43772</v>
       </c>
@@ -8492,7 +8546,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="43">
         <v>43778</v>
       </c>
@@ -8513,7 +8567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13">
+    <row r="31" spans="1:6" ht="13.8">
       <c r="A31" s="13" t="s">
         <v>206</v>
       </c>
@@ -8534,7 +8588,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13">
+    <row r="32" spans="1:6" ht="13.8">
       <c r="A32" s="13" t="s">
         <v>206</v>
       </c>
@@ -8555,7 +8609,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16">
+    <row r="33" spans="1:6" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>207</v>
       </c>
@@ -8576,7 +8630,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13">
+    <row r="34" spans="1:6" ht="13.8">
       <c r="A34" s="13" t="s">
         <v>208</v>
       </c>
@@ -8597,7 +8651,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13">
+    <row r="35" spans="1:6" ht="13.8">
       <c r="A35" s="13" t="s">
         <v>209</v>
       </c>
@@ -8618,7 +8672,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16">
+    <row r="36" spans="1:6" ht="15.6">
       <c r="A36" s="13">
         <v>43800</v>
       </c>
@@ -8681,7 +8735,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16">
+    <row r="39" spans="1:6" ht="15.6">
       <c r="A39" s="13">
         <v>43806</v>
       </c>
@@ -8742,13 +8796,13 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8765,7 +8819,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8783,7 +8837,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -8803,7 +8857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -8823,7 +8877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -8843,7 +8897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -8863,7 +8917,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -8884,7 +8938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -8904,7 +8958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -8924,7 +8978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6" ht="15.6">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -8964,7 +9018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -8984,7 +9038,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -9004,7 +9058,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -9024,7 +9078,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -9044,7 +9098,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -9064,7 +9118,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -9084,7 +9138,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -9104,7 +9158,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>167</v>
       </c>
@@ -9124,7 +9178,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>169</v>
       </c>
@@ -9144,7 +9198,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9307,7 +9361,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9324,7 +9378,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9341,7 +9395,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506F2725-CC9F-4FFC-9833-9A0C03ED90D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147463AB-E79F-4812-B32F-150DA411E462}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="3384" windowWidth="17208" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="223">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -4343,6 +4343,21 @@
   </si>
   <si>
     <t>GUI, SRS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 부분 test case 작성 및 서류 정리 작업</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5183,16 +5198,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5204,7 +5219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -5219,8 +5234,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5521,7 +5536,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5538,7 +5553,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5555,7 +5570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5572,7 +5587,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5589,7 +5604,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5606,7 +5621,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5623,7 +5638,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5639,18 +5654,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5667,7 +5682,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5685,7 +5700,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5705,7 +5720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5725,7 +5740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -5745,7 +5760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -5765,7 +5780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="13">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -5785,7 +5800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -5845,7 +5860,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -5865,7 +5880,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -5885,7 +5900,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -5905,7 +5920,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -5925,7 +5940,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -5945,7 +5960,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -5965,7 +5980,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -5985,7 +6000,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -6005,7 +6020,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -6025,7 +6040,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="13">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -6045,7 +6060,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6" ht="13">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -6065,7 +6080,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6" ht="13">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -6085,7 +6100,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6" ht="13">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -6105,7 +6120,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -6125,7 +6140,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -6145,7 +6160,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="13">
         <v>43806</v>
       </c>
@@ -6165,7 +6180,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="16">
       <c r="A29" s="13">
         <v>43807</v>
       </c>
@@ -6185,7 +6200,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="13">
         <v>43807</v>
       </c>
@@ -6205,7 +6220,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6">
+    <row r="31" spans="1:6" ht="16">
       <c r="A31" s="13">
         <v>43807</v>
       </c>
@@ -6225,7 +6240,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="32" spans="1:6" ht="16">
       <c r="A32" s="13">
         <v>43808</v>
       </c>
@@ -6245,7 +6260,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6">
+    <row r="33" spans="1:6" ht="16">
       <c r="A33" s="13">
         <v>43808</v>
       </c>
@@ -6265,21 +6280,45 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="3"/>
+    <row r="34" spans="1:6" ht="16">
+      <c r="A34" s="13">
+        <v>43808</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
+        <v>60</v>
+      </c>
+      <c r="E34" s="16">
+        <v>300</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13">
+      <c r="A35" s="13">
+        <v>43809</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>180</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="13"/>
@@ -6320,18 +6359,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6348,7 +6387,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6366,7 +6405,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6386,7 +6425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -6406,7 +6445,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -6426,7 +6465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -6446,7 +6485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -6466,7 +6505,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -6487,7 +6526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -6527,7 +6566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -6547,7 +6586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -6567,7 +6606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -6587,7 +6626,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -6647,7 +6686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -6667,7 +6706,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -6687,7 +6726,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6707,7 +6746,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="28.5">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -6727,7 +6766,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -6747,7 +6786,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -6767,7 +6806,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -6787,7 +6826,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -6807,7 +6846,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -6827,7 +6866,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -6847,7 +6886,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="16">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -6867,7 +6906,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -6947,7 +6986,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="16">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -6967,7 +7006,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="16">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -6987,7 +7026,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.2">
+    <row r="36" spans="1:6" ht="32">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -7007,7 +7046,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6">
+    <row r="37" spans="1:6" ht="16">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -7027,7 +7066,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6">
+    <row r="38" spans="1:6" ht="16">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -7067,7 +7106,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.2">
+    <row r="40" spans="1:6" ht="32">
       <c r="A40" s="46" t="s">
         <v>163</v>
       </c>
@@ -7087,7 +7126,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6">
+    <row r="41" spans="1:6" ht="16">
       <c r="A41" s="48" t="s">
         <v>173</v>
       </c>
@@ -7107,7 +7146,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.6">
+    <row r="42" spans="1:6" ht="16">
       <c r="A42" s="49" t="s">
         <v>175</v>
       </c>
@@ -7127,7 +7166,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="31.2">
+    <row r="43" spans="1:6" ht="32">
       <c r="A43" s="60" t="s">
         <v>212</v>
       </c>
@@ -7206,14 +7245,14 @@
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7230,7 +7269,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7248,7 +7287,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7268,7 +7307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -7288,7 +7327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -7308,7 +7347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -7328,7 +7367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -7349,7 +7388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -7369,7 +7408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7389,7 +7428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="13">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -7409,7 +7448,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="13">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -7430,7 +7469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="13">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -7450,7 +7489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="13">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -7470,7 +7509,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -7490,7 +7529,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6" ht="13">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -7510,7 +7549,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -7530,7 +7569,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -7550,7 +7589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -7570,7 +7609,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -7590,7 +7629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="13">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -7611,7 +7650,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6" ht="13">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -7631,7 +7670,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6" ht="13">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -7652,7 +7691,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6" ht="13">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -7672,7 +7711,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8">
+    <row r="26" spans="1:6" ht="13">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -7692,7 +7731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.8">
+    <row r="27" spans="1:6" ht="13">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -7712,7 +7751,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8">
+    <row r="28" spans="1:6" ht="13">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -7732,7 +7771,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8">
+    <row r="29" spans="1:6" ht="13">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -7752,7 +7791,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8">
+    <row r="30" spans="1:6" ht="13">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -7772,7 +7811,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8">
+    <row r="31" spans="1:6" ht="13">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -7792,7 +7831,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="32" spans="1:6" ht="16">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -7812,7 +7851,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.8">
+    <row r="33" spans="1:6" ht="13">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -7832,7 +7871,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8">
+    <row r="34" spans="1:6" ht="13">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -7852,7 +7891,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.8">
+    <row r="35" spans="1:6" ht="13">
       <c r="A35" s="13" t="s">
         <v>165</v>
       </c>
@@ -7872,7 +7911,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.8">
+    <row r="36" spans="1:6" ht="13">
       <c r="A36" s="13" t="s">
         <v>171</v>
       </c>
@@ -7892,7 +7931,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6">
+    <row r="37" spans="1:6" ht="16">
       <c r="A37" s="13" t="s">
         <v>210</v>
       </c>
@@ -7912,7 +7951,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.8">
+    <row r="38" spans="1:6" ht="13">
       <c r="A38" s="13" t="s">
         <v>214</v>
       </c>
@@ -7932,7 +7971,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.8">
+    <row r="39" spans="1:6" ht="13">
       <c r="A39" s="3" t="s">
         <v>216</v>
       </c>
@@ -7980,13 +8019,13 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8003,7 +8042,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8021,7 +8060,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26.4">
+    <row r="5" spans="1:7" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -8041,7 +8080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -8189,7 +8228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -8252,7 +8291,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="43" t="s">
         <v>198</v>
       </c>
@@ -8273,7 +8312,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="13" t="s">
         <v>199</v>
       </c>
@@ -8294,7 +8333,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13" t="s">
         <v>200</v>
       </c>
@@ -8315,7 +8354,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="43" t="s">
         <v>202</v>
       </c>
@@ -8336,7 +8375,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13" t="s">
         <v>203</v>
       </c>
@@ -8357,7 +8396,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13" t="s">
         <v>201</v>
       </c>
@@ -8378,7 +8417,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6">
+    <row r="22" spans="1:6" ht="16">
       <c r="A22" s="43" t="s">
         <v>204</v>
       </c>
@@ -8399,7 +8438,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="43" t="s">
         <v>205</v>
       </c>
@@ -8420,7 +8459,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="43" t="s">
         <v>205</v>
       </c>
@@ -8441,7 +8480,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="43">
         <v>43770</v>
       </c>
@@ -8462,7 +8501,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="13">
         <v>43771</v>
       </c>
@@ -8483,7 +8522,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="13">
         <v>43771</v>
       </c>
@@ -8504,7 +8543,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="43">
         <v>43772</v>
       </c>
@@ -8546,7 +8585,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="43">
         <v>43778</v>
       </c>
@@ -8567,7 +8606,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8">
+    <row r="31" spans="1:6" ht="13">
       <c r="A31" s="13" t="s">
         <v>206</v>
       </c>
@@ -8588,7 +8627,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.8">
+    <row r="32" spans="1:6" ht="13">
       <c r="A32" s="13" t="s">
         <v>206</v>
       </c>
@@ -8609,7 +8648,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6">
+    <row r="33" spans="1:6" ht="16">
       <c r="A33" s="13" t="s">
         <v>207</v>
       </c>
@@ -8630,7 +8669,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8">
+    <row r="34" spans="1:6" ht="13">
       <c r="A34" s="13" t="s">
         <v>208</v>
       </c>
@@ -8651,7 +8690,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.8">
+    <row r="35" spans="1:6" ht="13">
       <c r="A35" s="13" t="s">
         <v>209</v>
       </c>
@@ -8672,7 +8711,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6">
+    <row r="36" spans="1:6" ht="16">
       <c r="A36" s="13">
         <v>43800</v>
       </c>
@@ -8735,7 +8774,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.6">
+    <row r="39" spans="1:6" ht="16">
       <c r="A39" s="13">
         <v>43806</v>
       </c>
@@ -8796,13 +8835,13 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="50.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8819,7 +8858,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8837,7 +8876,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -8857,7 +8896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -8877,7 +8916,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -8897,7 +8936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -8917,7 +8956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -8938,7 +8977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="13">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -8958,7 +8997,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="13">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -8978,7 +9017,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -9018,7 +9057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -9038,7 +9077,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="13">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -9058,7 +9097,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="13">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -9078,7 +9117,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6" ht="13">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -9098,7 +9137,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -9118,7 +9157,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -9138,7 +9177,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -9158,7 +9197,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="13" t="s">
         <v>167</v>
       </c>
@@ -9178,7 +9217,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="13">
       <c r="A22" s="13" t="s">
         <v>169</v>
       </c>
@@ -9198,7 +9237,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6" ht="13">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9361,7 +9400,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9378,7 +9417,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9395,7 +9434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147463AB-E79F-4812-B32F-150DA411E462}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9999DF3-9C3A-4365-839D-FB329C7C8C3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="3510" windowWidth="20640" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="225">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -4358,6 +4358,14 @@
       </rPr>
       <t xml:space="preserve"> 부분 test case 작성 및 서류 정리 작업</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12.10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 산출물 취합</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5198,16 +5206,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.9" customHeight="1">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5219,7 +5227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.9" customHeight="1">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -5234,8 +5242,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5536,7 +5544,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5553,7 +5561,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5570,7 +5578,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5587,7 +5595,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5604,7 +5612,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5621,7 +5629,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5638,7 +5646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5654,18 +5662,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5682,7 +5690,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5700,7 +5708,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5720,7 +5728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5740,7 +5748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -5760,7 +5768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -5780,7 +5788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -5800,7 +5808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -5860,7 +5868,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -5880,7 +5888,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -5900,7 +5908,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -5920,7 +5928,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -5940,7 +5948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -5960,7 +5968,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -5980,7 +5988,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -6000,7 +6008,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -6020,7 +6028,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -6040,7 +6048,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -6060,7 +6068,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13">
+    <row r="23" spans="1:6">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -6080,7 +6088,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13">
+    <row r="24" spans="1:6">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -6100,7 +6108,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13">
+    <row r="25" spans="1:6">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -6120,7 +6128,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -6140,7 +6148,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -6160,7 +6168,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="13">
         <v>43806</v>
       </c>
@@ -6180,7 +6188,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16">
+    <row r="29" spans="1:6" ht="13.5">
       <c r="A29" s="13">
         <v>43807</v>
       </c>
@@ -6200,7 +6208,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="13">
         <v>43807</v>
       </c>
@@ -6220,7 +6228,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16">
+    <row r="31" spans="1:6" ht="13.5">
       <c r="A31" s="13">
         <v>43807</v>
       </c>
@@ -6240,7 +6248,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16">
+    <row r="32" spans="1:6" ht="13.5">
       <c r="A32" s="13">
         <v>43808</v>
       </c>
@@ -6260,7 +6268,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16">
+    <row r="33" spans="1:6" ht="13.5">
       <c r="A33" s="13">
         <v>43808</v>
       </c>
@@ -6280,7 +6288,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16">
+    <row r="34" spans="1:6" ht="13.5">
       <c r="A34" s="13">
         <v>43808</v>
       </c>
@@ -6300,7 +6308,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13">
+    <row r="35" spans="1:6">
       <c r="A35" s="13">
         <v>43809</v>
       </c>
@@ -6363,14 +6371,14 @@
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6387,7 +6395,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6405,7 +6413,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6425,7 +6433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -6445,7 +6453,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -6465,7 +6473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -6485,7 +6493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -6505,7 +6513,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -6526,7 +6534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -6566,7 +6574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -6586,7 +6594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -6606,7 +6614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -6626,7 +6634,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -6686,7 +6694,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -6706,7 +6714,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -6726,7 +6734,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16">
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6746,7 +6754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5">
+    <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -6766,7 +6774,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -6786,7 +6794,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -6806,7 +6814,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -6826,7 +6834,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -6846,7 +6854,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -6866,7 +6874,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -6886,7 +6894,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16">
+    <row r="29" spans="1:6" ht="13.5">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -6906,7 +6914,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -6986,7 +6994,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16">
+    <row r="34" spans="1:6" ht="13.5">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -7006,7 +7014,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16">
+    <row r="35" spans="1:6" ht="13.5">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -7026,7 +7034,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="32">
+    <row r="36" spans="1:6" ht="27">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -7046,7 +7054,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16">
+    <row r="37" spans="1:6" ht="13.5">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -7066,7 +7074,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16">
+    <row r="38" spans="1:6" ht="13.5">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -7106,7 +7114,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="32">
+    <row r="40" spans="1:6" ht="27">
       <c r="A40" s="46" t="s">
         <v>163</v>
       </c>
@@ -7126,7 +7134,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16">
+    <row r="41" spans="1:6" ht="13.5">
       <c r="A41" s="48" t="s">
         <v>173</v>
       </c>
@@ -7146,7 +7154,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16">
+    <row r="42" spans="1:6" ht="13.5">
       <c r="A42" s="49" t="s">
         <v>175</v>
       </c>
@@ -7166,7 +7174,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="32">
+    <row r="43" spans="1:6" ht="27">
       <c r="A43" s="60" t="s">
         <v>212</v>
       </c>
@@ -7241,18 +7249,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7269,7 +7277,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7287,7 +7295,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7307,7 +7315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -7327,7 +7335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -7347,7 +7355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -7367,7 +7375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -7388,7 +7396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -7408,7 +7416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7428,7 +7436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -7448,7 +7456,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -7469,7 +7477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -7489,7 +7497,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -7509,7 +7517,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -7529,7 +7537,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -7549,7 +7557,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -7569,7 +7577,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -7589,7 +7597,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -7609,7 +7617,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -7629,7 +7637,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -7650,7 +7658,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13">
+    <row r="23" spans="1:6">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -7670,7 +7678,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -7691,7 +7699,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13">
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -7711,7 +7719,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -7731,7 +7739,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -7751,7 +7759,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -7771,7 +7779,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -7791,7 +7799,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -7811,7 +7819,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13">
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -7831,7 +7839,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -7851,7 +7859,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13">
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -7871,7 +7879,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13">
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -7891,7 +7899,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13">
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="13" t="s">
         <v>165</v>
       </c>
@@ -7911,7 +7919,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13">
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="13" t="s">
         <v>171</v>
       </c>
@@ -7931,7 +7939,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16">
+    <row r="37" spans="1:6" ht="13.5">
       <c r="A37" s="13" t="s">
         <v>210</v>
       </c>
@@ -7951,7 +7959,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13">
+    <row r="38" spans="1:6" ht="15">
       <c r="A38" s="13" t="s">
         <v>214</v>
       </c>
@@ -7971,7 +7979,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13">
+    <row r="39" spans="1:6" ht="15">
       <c r="A39" s="3" t="s">
         <v>216</v>
       </c>
@@ -7991,13 +7999,25 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="3"/>
+    <row r="40" spans="1:6" ht="15">
+      <c r="A40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>480</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8019,13 +8039,13 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8042,7 +8062,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8060,7 +8080,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="26">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -8080,7 +8100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -8228,7 +8248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -8291,7 +8311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="43" t="s">
         <v>198</v>
       </c>
@@ -8312,7 +8332,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="13" t="s">
         <v>199</v>
       </c>
@@ -8333,7 +8353,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
         <v>200</v>
       </c>
@@ -8354,7 +8374,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="43" t="s">
         <v>202</v>
       </c>
@@ -8375,7 +8395,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>203</v>
       </c>
@@ -8396,7 +8416,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
         <v>201</v>
       </c>
@@ -8417,7 +8437,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16">
+    <row r="22" spans="1:6" ht="13.5">
       <c r="A22" s="43" t="s">
         <v>204</v>
       </c>
@@ -8438,7 +8458,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="43" t="s">
         <v>205</v>
       </c>
@@ -8459,7 +8479,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="43" t="s">
         <v>205</v>
       </c>
@@ -8480,7 +8500,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="43">
         <v>43770</v>
       </c>
@@ -8501,7 +8521,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="13">
         <v>43771</v>
       </c>
@@ -8522,7 +8542,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="13">
         <v>43771</v>
       </c>
@@ -8543,7 +8563,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="43">
         <v>43772</v>
       </c>
@@ -8585,7 +8605,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="43">
         <v>43778</v>
       </c>
@@ -8606,7 +8626,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13">
+    <row r="31" spans="1:6">
       <c r="A31" s="13" t="s">
         <v>206</v>
       </c>
@@ -8627,7 +8647,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13">
+    <row r="32" spans="1:6">
       <c r="A32" s="13" t="s">
         <v>206</v>
       </c>
@@ -8648,7 +8668,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16">
+    <row r="33" spans="1:6" ht="13.5">
       <c r="A33" s="13" t="s">
         <v>207</v>
       </c>
@@ -8669,7 +8689,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13">
+    <row r="34" spans="1:6">
       <c r="A34" s="13" t="s">
         <v>208</v>
       </c>
@@ -8690,7 +8710,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13">
+    <row r="35" spans="1:6">
       <c r="A35" s="13" t="s">
         <v>209</v>
       </c>
@@ -8711,7 +8731,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16">
+    <row r="36" spans="1:6" ht="13.5">
       <c r="A36" s="13">
         <v>43800</v>
       </c>
@@ -8774,7 +8794,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16">
+    <row r="39" spans="1:6" ht="13.5">
       <c r="A39" s="13">
         <v>43806</v>
       </c>
@@ -8835,13 +8855,13 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8858,7 +8878,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8876,7 +8896,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -8896,7 +8916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -8916,7 +8936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -8936,7 +8956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -8956,7 +8976,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -8977,7 +8997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13">
+    <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -8997,7 +9017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13">
+    <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -9017,7 +9037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6" ht="13.5">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -9057,7 +9077,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -9077,7 +9097,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -9097,7 +9117,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -9117,7 +9137,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -9137,7 +9157,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13">
+    <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -9157,7 +9177,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13">
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -9177,7 +9197,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -9197,7 +9217,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13">
+    <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
         <v>167</v>
       </c>
@@ -9217,7 +9237,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6">
       <c r="A22" s="13" t="s">
         <v>169</v>
       </c>
@@ -9237,7 +9257,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9400,7 +9420,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9417,7 +9437,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9434,7 +9454,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
